--- a/Causal Inference/TermProject/Data/munic_data_monthly.xlsx
+++ b/Causal Inference/TermProject/Data/munic_data_monthly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://texastechuniversity-my.sharepoint.com/personal/joao-pedro_bastos_ttu_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/AppliedEconometrics/Causal Inference/TermProject/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{279E9BC7-E7BE-B844-BE12-461496224B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED840B0-9093-0148-9CCC-41356EC2B956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12300" yWindow="1920" windowWidth="27640" windowHeight="16940" xr2:uid="{6BD9C115-2A11-434B-ADAC-9977286FDDFB}"/>
+    <workbookView xWindow="13040" yWindow="1940" windowWidth="27640" windowHeight="16940" xr2:uid="{6BD9C115-2A11-434B-ADAC-9977286FDDFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D5597"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,13 +447,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>136683.89578595699</v>
+        <v>126759.336638236</v>
       </c>
       <c r="B2">
-        <v>3530081.3664530301</v>
+        <v>3513850.2434858801</v>
       </c>
       <c r="C2">
-        <v>7733</v>
+        <v>7567</v>
       </c>
       <c r="D2">
         <v>520005</v>
@@ -461,13 +461,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>141211.43453351199</v>
+        <v>110339.89440212</v>
       </c>
       <c r="B3">
-        <v>975759.88808762201</v>
+        <v>1181083.4159019301</v>
       </c>
       <c r="C3">
-        <v>6992</v>
+        <v>6967</v>
       </c>
       <c r="D3">
         <v>310010</v>
@@ -475,13 +475,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>207629.36463084901</v>
+        <v>174510.59076074301</v>
       </c>
       <c r="B4">
-        <v>3141065.7711324198</v>
+        <v>3129442.49012401</v>
       </c>
       <c r="C4">
-        <v>17701</v>
+        <v>17326</v>
       </c>
       <c r="D4">
         <v>520010</v>
@@ -489,13 +489,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>779402.980224689</v>
+        <v>709188.25690579996</v>
       </c>
       <c r="B5">
-        <v>5099224.14543908</v>
+        <v>5519526.7399960598</v>
       </c>
       <c r="C5">
-        <v>148873</v>
+        <v>147267</v>
       </c>
       <c r="D5">
         <v>150010</v>
@@ -503,13 +503,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>257920.95021148099</v>
+        <v>243261.64550961199</v>
       </c>
       <c r="B6">
-        <v>3344387.02205934</v>
+        <v>3425808.2525713602</v>
       </c>
       <c r="C6">
-        <v>23494</v>
+        <v>23451</v>
       </c>
       <c r="D6">
         <v>310020</v>
@@ -517,13 +517,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>47741.217446082403</v>
+        <v>40150.303310344003</v>
       </c>
       <c r="B7">
-        <v>842253.95520244003</v>
+        <v>192858.70783458999</v>
       </c>
       <c r="C7">
-        <v>11226</v>
+        <v>11089</v>
       </c>
       <c r="D7">
         <v>230010</v>
@@ -531,13 +531,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>79161.535307058206</v>
+        <v>71392.280911363094</v>
       </c>
       <c r="B8">
-        <v>1224122.88511506</v>
+        <v>667718.20695913397</v>
       </c>
       <c r="C8">
-        <v>19290</v>
+        <v>18989</v>
       </c>
       <c r="D8">
         <v>290020</v>
@@ -545,13 +545,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>98997.842315266302</v>
+        <v>98785.952608440406</v>
       </c>
       <c r="B9">
-        <v>1014207.0543665499</v>
+        <v>707342.44742748002</v>
       </c>
       <c r="C9">
-        <v>7852</v>
+        <v>7881</v>
       </c>
       <c r="D9">
         <v>410010</v>
@@ -559,13 +559,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>40808.693337991703</v>
+        <v>33799.896284765702</v>
       </c>
       <c r="B10">
-        <v>879122.14791757695</v>
+        <v>414297.46378423902</v>
       </c>
       <c r="C10">
-        <v>9243</v>
+        <v>9132</v>
       </c>
       <c r="D10">
         <v>290010</v>
@@ -573,13 +573,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>46031.588729451803</v>
+        <v>52383.628870322798</v>
       </c>
       <c r="B11">
-        <v>3122053.66289456</v>
+        <v>5895685.50013687</v>
       </c>
       <c r="C11">
-        <v>2643</v>
+        <v>2656</v>
       </c>
       <c r="D11">
         <v>420005</v>
@@ -587,13 +587,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>51174.671536991402</v>
+        <v>45803.160662449802</v>
       </c>
       <c r="B12">
-        <v>898195.72248805605</v>
+        <v>185947.22359951099</v>
       </c>
       <c r="C12">
-        <v>7070</v>
+        <v>7013</v>
       </c>
       <c r="D12">
         <v>150013</v>
@@ -601,13 +601,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>427816.04511093901</v>
+        <v>610068.27802286099</v>
       </c>
       <c r="B13">
-        <v>5167764.0517170904</v>
+        <v>3400275.9332379801</v>
       </c>
       <c r="C13">
-        <v>17651</v>
+        <v>17584</v>
       </c>
       <c r="D13">
         <v>420010</v>
@@ -615,13 +615,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>114454.468267387</v>
+        <v>108350.70767749099</v>
       </c>
       <c r="B14">
-        <v>2992174.8426680798</v>
+        <v>3425496.8581905598</v>
       </c>
       <c r="C14">
-        <v>13711</v>
+        <v>13703</v>
       </c>
       <c r="D14">
         <v>310030</v>
@@ -629,13 +629,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>992094.491592039</v>
+        <v>970706.49751469097</v>
       </c>
       <c r="B15">
-        <v>8988167.2521944009</v>
+        <v>9058753.6703958008</v>
       </c>
       <c r="C15">
-        <v>98201</v>
+        <v>97786</v>
       </c>
       <c r="D15">
         <v>260005</v>
@@ -643,13 +643,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>20048.907212456801</v>
+        <v>21172.169102324198</v>
       </c>
       <c r="B16">
-        <v>865660.39051226201</v>
+        <v>496666.83100717101</v>
       </c>
       <c r="C16">
-        <v>2523</v>
+        <v>2506</v>
       </c>
       <c r="D16">
         <v>170025</v>
@@ -657,13 +657,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>22963.172308348701</v>
+        <v>24184.337297600901</v>
       </c>
       <c r="B17">
-        <v>184791.71217751599</v>
+        <v>112497.56161042801</v>
       </c>
       <c r="C17">
-        <v>4050</v>
+        <v>4045</v>
       </c>
       <c r="D17">
         <v>310040</v>
@@ -671,13 +671,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>84223.984492487405</v>
+        <v>87054.8808885748</v>
       </c>
       <c r="B18">
-        <v>344262.13284871803</v>
+        <v>326604.82298362203</v>
       </c>
       <c r="C18">
-        <v>15668</v>
+        <v>15615</v>
       </c>
       <c r="D18">
         <v>290030</v>
@@ -685,13 +685,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>84214.122444366207</v>
+        <v>81278.223443930096</v>
       </c>
       <c r="B19">
-        <v>1125435.4434985199</v>
+        <v>525995.34257390199</v>
       </c>
       <c r="C19">
-        <v>16153</v>
+        <v>16011</v>
       </c>
       <c r="D19">
         <v>230015</v>
@@ -699,13 +699,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>386270.75289803301</v>
+        <v>372183.90810512</v>
       </c>
       <c r="B20">
-        <v>8949009.6536561903</v>
+        <v>6509453.1660819398</v>
       </c>
       <c r="C20">
-        <v>60684</v>
+        <v>60137</v>
       </c>
       <c r="D20">
         <v>230020</v>
@@ -713,13 +713,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>77918.650941183107</v>
+        <v>78089.632578816905</v>
       </c>
       <c r="B21">
-        <v>540814.29073289398</v>
+        <v>440530.76232069102</v>
       </c>
       <c r="C21">
-        <v>11349</v>
+        <v>11355</v>
       </c>
       <c r="D21">
         <v>240010</v>
@@ -727,13 +727,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>425830.32478309202</v>
+        <v>693428.50822828501</v>
       </c>
       <c r="B22">
-        <v>3974934.9114460899</v>
+        <v>3808159.87607679</v>
       </c>
       <c r="C22">
-        <v>54047</v>
+        <v>54030</v>
       </c>
       <c r="D22">
         <v>150020</v>
@@ -741,13 +741,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>27148.157399093699</v>
+        <v>25089.7455547256</v>
       </c>
       <c r="B23">
-        <v>107953.14836960399</v>
+        <v>181743.579377888</v>
       </c>
       <c r="C23">
-        <v>6913</v>
+        <v>6890</v>
       </c>
       <c r="D23">
         <v>220005</v>
@@ -755,13 +755,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>156127.22868787599</v>
+        <v>144535.75797919699</v>
       </c>
       <c r="B24">
-        <v>1504417.04623917</v>
+        <v>3487666.5882272199</v>
       </c>
       <c r="C24">
-        <v>4671</v>
+        <v>4638</v>
       </c>
       <c r="D24">
         <v>430003</v>
@@ -769,13 +769,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>247120.95927495</v>
+        <v>229072.11889738901</v>
       </c>
       <c r="B25">
-        <v>3035440.5874833399</v>
+        <v>2043244.86140774</v>
       </c>
       <c r="C25">
-        <v>52903</v>
+        <v>52661</v>
       </c>
       <c r="D25">
         <v>230030</v>
@@ -783,13 +783,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>35835.223889748297</v>
+        <v>33659.905670334199</v>
       </c>
       <c r="B26">
-        <v>529354.70370067004</v>
+        <v>608381.04645101901</v>
       </c>
       <c r="C26">
-        <v>5396</v>
+        <v>5431</v>
       </c>
       <c r="D26">
         <v>510010</v>
@@ -797,13 +797,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>153306.01901290601</v>
+        <v>170769.41708907901</v>
       </c>
       <c r="B27">
-        <v>776648.66432321502</v>
+        <v>928039.58644690202</v>
       </c>
       <c r="C27">
-        <v>13613</v>
+        <v>13353</v>
       </c>
       <c r="D27">
         <v>120001</v>
@@ -811,13 +811,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>384060.87734149402</v>
+        <v>385339.78552972502</v>
       </c>
       <c r="B28">
-        <v>7638799.3385031698</v>
+        <v>8669471.1313926</v>
       </c>
       <c r="C28">
-        <v>21549</v>
+        <v>21366</v>
       </c>
       <c r="D28">
         <v>520013</v>
@@ -825,13 +825,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>636535.98156477802</v>
+        <v>648845.52069872897</v>
       </c>
       <c r="B29">
-        <v>14338514.529452</v>
+        <v>14198144.814444499</v>
       </c>
       <c r="C29">
-        <v>35001</v>
+        <v>34953</v>
       </c>
       <c r="D29">
         <v>350010</v>
@@ -839,13 +839,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>22432.236492007301</v>
+        <v>22181.6880398549</v>
       </c>
       <c r="B30">
-        <v>270197.25587915699</v>
+        <v>204682.127406549</v>
       </c>
       <c r="C30">
-        <v>2554</v>
+        <v>2550</v>
       </c>
       <c r="D30">
         <v>520015</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>56689.393260771001</v>
+        <v>58497.255380507202</v>
       </c>
       <c r="B31">
-        <v>1190133.57562355</v>
+        <v>1246432.2636409299</v>
       </c>
       <c r="C31">
-        <v>3631</v>
+        <v>3639</v>
       </c>
       <c r="D31">
         <v>350020</v>
@@ -867,13 +867,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>84966.340962255097</v>
+        <v>84264.970188833206</v>
       </c>
       <c r="B32">
-        <v>5968586.4243156202</v>
+        <v>3826536.3090710598</v>
       </c>
       <c r="C32">
-        <v>6374</v>
+        <v>6416</v>
       </c>
       <c r="D32">
         <v>410020</v>
@@ -881,13 +881,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>72793.494502960297</v>
+        <v>105672.276967</v>
       </c>
       <c r="B33">
-        <v>469986.33434119902</v>
+        <v>275185.59975663899</v>
       </c>
       <c r="C33">
-        <v>17044</v>
+        <v>16929</v>
       </c>
       <c r="D33">
         <v>290035</v>
@@ -895,13 +895,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>284541.348245667</v>
+        <v>262348.646279315</v>
       </c>
       <c r="B34">
-        <v>4183447.29525598</v>
+        <v>3937244.94947406</v>
       </c>
       <c r="C34">
-        <v>36547</v>
+        <v>36379</v>
       </c>
       <c r="D34">
         <v>260010</v>
@@ -909,13 +909,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>49824.075517710597</v>
+        <v>52164.352352898401</v>
       </c>
       <c r="B35">
-        <v>323882.91554621601</v>
+        <v>239511.749386221</v>
       </c>
       <c r="C35">
-        <v>11197</v>
+        <v>11191</v>
       </c>
       <c r="D35">
         <v>240030</v>
@@ -923,13 +923,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>277239.13638576702</v>
+        <v>274923.77395581402</v>
       </c>
       <c r="B36">
-        <v>4014598.2526449901</v>
+        <v>3609005.8469480299</v>
       </c>
       <c r="C36">
-        <v>32502</v>
+        <v>32551</v>
       </c>
       <c r="D36">
         <v>320010</v>
@@ -937,13 +937,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>26308.094434022601</v>
+        <v>22120.9308211957</v>
       </c>
       <c r="B37">
-        <v>567094.10030979</v>
+        <v>371258.78582563298</v>
       </c>
       <c r="C37">
-        <v>6277</v>
+        <v>6197</v>
       </c>
       <c r="D37">
         <v>210010</v>
@@ -951,13 +951,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>98455.102138536196</v>
+        <v>98429.353002499905</v>
       </c>
       <c r="B38">
-        <v>797350.36030107597</v>
+        <v>671979.92426806001</v>
       </c>
       <c r="C38">
-        <v>18831</v>
+        <v>18625</v>
       </c>
       <c r="D38">
         <v>260020</v>
@@ -965,13 +965,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>222272.466404885</v>
+        <v>208608.1011537</v>
       </c>
       <c r="B39">
-        <v>692604.15601804201</v>
+        <v>639339.50990610302</v>
       </c>
       <c r="C39">
-        <v>37004</v>
+        <v>36598</v>
       </c>
       <c r="D39">
         <v>150030</v>
@@ -979,13 +979,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>144201.11490097101</v>
+        <v>133849.21160167301</v>
       </c>
       <c r="B40">
-        <v>2353829.6469946401</v>
+        <v>1904915.1368892901</v>
       </c>
       <c r="C40">
-        <v>24052</v>
+        <v>23842</v>
       </c>
       <c r="D40">
         <v>260030</v>
@@ -993,13 +993,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>18088.5173512408</v>
+        <v>17326.029519011099</v>
       </c>
       <c r="B41">
-        <v>231913.90523616201</v>
+        <v>103142.56730532</v>
       </c>
       <c r="C41">
-        <v>5087</v>
+        <v>5097</v>
       </c>
       <c r="D41">
         <v>220010</v>
@@ -1007,13 +1007,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>191437.06485492701</v>
+        <v>172619.58378729201</v>
       </c>
       <c r="B42">
-        <v>2117662.4805279099</v>
+        <v>2105608.1700013499</v>
       </c>
       <c r="C42">
-        <v>10115</v>
+        <v>9957</v>
       </c>
       <c r="D42">
         <v>420020</v>
@@ -1021,13 +1021,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>98912.886624194798</v>
+        <v>94233.454867629596</v>
       </c>
       <c r="B43">
-        <v>1087013.4726958601</v>
+        <v>924922.89347512799</v>
       </c>
       <c r="C43">
-        <v>5239</v>
+        <v>5172</v>
       </c>
       <c r="D43">
         <v>420030</v>
@@ -1035,13 +1035,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>35130.731812831102</v>
+        <v>33846.116958978797</v>
       </c>
       <c r="B44">
-        <v>217673.60581250899</v>
+        <v>348248.21258327598</v>
       </c>
       <c r="C44">
-        <v>4332</v>
+        <v>4293</v>
       </c>
       <c r="D44">
         <v>310080</v>
@@ -1049,13 +1049,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>568054.10309298802</v>
+        <v>525764.17006563803</v>
       </c>
       <c r="B45">
-        <v>13928994.500626501</v>
+        <v>11745926.746387901</v>
       </c>
       <c r="C45">
-        <v>34530</v>
+        <v>34188</v>
       </c>
       <c r="D45">
         <v>350030</v>
@@ -1063,13 +1063,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>317581.174632321</v>
+        <v>282655.64595340798</v>
       </c>
       <c r="B46">
-        <v>2946562.1351846801</v>
+        <v>2901109.6637091399</v>
       </c>
       <c r="C46">
-        <v>17140</v>
+        <v>17161</v>
       </c>
       <c r="D46">
         <v>430010</v>
@@ -1077,13 +1077,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1554184.21845033</v>
+        <v>1511898.9485170001</v>
       </c>
       <c r="B47">
-        <v>9137303.5505472403</v>
+        <v>8722073.4402423799</v>
       </c>
       <c r="C47">
-        <v>36339</v>
+        <v>36150</v>
       </c>
       <c r="D47">
         <v>350070</v>
@@ -1091,13 +1091,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>103849.93827068299</v>
+        <v>95490.518300762007</v>
       </c>
       <c r="B48">
-        <v>766224.69585529005</v>
+        <v>548004.94670434296</v>
       </c>
       <c r="C48">
-        <v>8892</v>
+        <v>8797</v>
       </c>
       <c r="D48">
         <v>410030</v>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>27892.204632141598</v>
+        <v>27966.816649411001</v>
       </c>
       <c r="B49">
-        <v>138578.01556638299</v>
+        <v>77437.137011688494</v>
       </c>
       <c r="C49">
-        <v>5580</v>
+        <v>5586</v>
       </c>
       <c r="D49">
         <v>250020</v>
@@ -1119,13 +1119,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>64818.452542911698</v>
+        <v>85738.657729189494</v>
       </c>
       <c r="B50">
-        <v>725824.43877171201</v>
+        <v>423591.19203776901</v>
       </c>
       <c r="C50">
-        <v>5987</v>
+        <v>5820</v>
       </c>
       <c r="D50">
         <v>170030</v>
@@ -1133,13 +1133,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>282033.30599450797</v>
+        <v>306102.836768749</v>
       </c>
       <c r="B51">
-        <v>4343272.6055155303</v>
+        <v>3278317.5081267701</v>
       </c>
       <c r="C51">
-        <v>25685</v>
+        <v>25675</v>
       </c>
       <c r="D51">
         <v>310110</v>
@@ -1147,13 +1147,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>35083.3624091315</v>
+        <v>32333.646471753102</v>
       </c>
       <c r="B52">
-        <v>2912982.38450845</v>
+        <v>2433308.1101629902</v>
       </c>
       <c r="C52">
-        <v>4790</v>
+        <v>4767</v>
       </c>
       <c r="D52">
         <v>290060</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>68928.988723301096</v>
+        <v>62497.391481544902</v>
       </c>
       <c r="B53">
-        <v>549777.70077228302</v>
+        <v>960746.42694019503</v>
       </c>
       <c r="C53">
-        <v>16893</v>
+        <v>16784</v>
       </c>
       <c r="D53">
         <v>230040</v>
@@ -1175,13 +1175,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>51554.683862478603</v>
+        <v>53764.063587026598</v>
       </c>
       <c r="B54">
-        <v>675177.09951615694</v>
+        <v>1224993.4108708201</v>
       </c>
       <c r="C54">
-        <v>6257</v>
+        <v>6274</v>
       </c>
       <c r="D54">
         <v>310120</v>
@@ -1189,13 +1189,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>146488.29640372199</v>
+        <v>161576.20868141099</v>
       </c>
       <c r="B55">
-        <v>1583738.5873005099</v>
+        <v>978419.86083963898</v>
       </c>
       <c r="C55">
-        <v>7403</v>
+        <v>7420</v>
       </c>
       <c r="D55">
         <v>430020</v>
@@ -1203,13 +1203,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>20814.983792729399</v>
+        <v>21439.177865461701</v>
       </c>
       <c r="B56">
-        <v>519283.85095290898</v>
+        <v>592008.72510329704</v>
       </c>
       <c r="C56">
-        <v>2764</v>
+        <v>2768</v>
       </c>
       <c r="D56">
         <v>310130</v>
@@ -1217,13 +1217,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>155860.258493745</v>
+        <v>155463.13906598999</v>
       </c>
       <c r="B57">
-        <v>1057589.23254918</v>
+        <v>834824.17297383002</v>
       </c>
       <c r="C57">
-        <v>28689</v>
+        <v>28733</v>
       </c>
       <c r="D57">
         <v>250030</v>
@@ -1231,13 +1231,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>164631.66249936799</v>
+        <v>189148.85283077601</v>
       </c>
       <c r="B58">
-        <v>450718.09161200601</v>
+        <v>373442.586274695</v>
       </c>
       <c r="C58">
-        <v>20399</v>
+        <v>20294</v>
       </c>
       <c r="D58">
         <v>250040</v>
@@ -1245,13 +1245,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>61932.0356165634</v>
+        <v>57164.431983796501</v>
       </c>
       <c r="B59">
-        <v>400461.52095158002</v>
+        <v>308358.36354644003</v>
       </c>
       <c r="C59">
-        <v>14188</v>
+        <v>14088</v>
       </c>
       <c r="D59">
         <v>250050</v>
@@ -1259,13 +1259,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>77121.917842410796</v>
+        <v>78645.4764019875</v>
       </c>
       <c r="B60">
-        <v>649634.07971143897</v>
+        <v>815249.16212287301</v>
       </c>
       <c r="C60">
-        <v>14250</v>
+        <v>14155</v>
       </c>
       <c r="D60">
         <v>260060</v>
@@ -1273,13 +1273,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>28803.987828085901</v>
+        <v>27256.628647070698</v>
       </c>
       <c r="B61">
-        <v>107082.282991849</v>
+        <v>66990.962158446404</v>
       </c>
       <c r="C61">
-        <v>7485</v>
+        <v>7467</v>
       </c>
       <c r="D61">
         <v>220025</v>
@@ -1287,13 +1287,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2034084.0995290901</v>
+        <v>2115508.7763612801</v>
       </c>
       <c r="B62">
-        <v>40741459.416353703</v>
+        <v>37711013.064286098</v>
       </c>
       <c r="C62">
-        <v>153560</v>
+        <v>152570</v>
       </c>
       <c r="D62">
         <v>290070</v>
@@ -1301,13 +1301,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>52600.301447117003</v>
+        <v>55978.233409274297</v>
       </c>
       <c r="B63">
-        <v>5618465.2397498302</v>
+        <v>4119400.6587367901</v>
       </c>
       <c r="C63">
-        <v>5460</v>
+        <v>5356</v>
       </c>
       <c r="D63">
         <v>350075</v>
@@ -1315,13 +1315,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>52981.646760932003</v>
+        <v>41821.857151173703</v>
       </c>
       <c r="B64">
-        <v>429021.56391904602</v>
+        <v>431957.19504510699</v>
       </c>
       <c r="C64">
-        <v>3025</v>
+        <v>3018</v>
       </c>
       <c r="D64">
         <v>310140</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>26114.053528800101</v>
+        <v>24730.518996630999</v>
       </c>
       <c r="B65">
-        <v>748184.53666946001</v>
+        <v>226402.01380923801</v>
       </c>
       <c r="C65">
-        <v>5425</v>
+        <v>5398</v>
       </c>
       <c r="D65">
         <v>250053</v>
@@ -1343,13 +1343,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>105369.431361675</v>
+        <v>101698.117619971</v>
       </c>
       <c r="B66">
-        <v>2094170.0590118901</v>
+        <v>2840239.6524509201</v>
       </c>
       <c r="C66">
-        <v>4961</v>
+        <v>4883</v>
       </c>
       <c r="D66">
         <v>500025</v>
@@ -1357,13 +1357,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>154535.91725452899</v>
+        <v>158176.471962415</v>
       </c>
       <c r="B67">
-        <v>4149765.8213349301</v>
+        <v>6317704.6934275301</v>
       </c>
       <c r="C67">
-        <v>23231</v>
+        <v>23176</v>
       </c>
       <c r="D67">
         <v>290080</v>
@@ -1371,13 +1371,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>73774.556207937596</v>
+        <v>69902.937468086806</v>
       </c>
       <c r="B68">
-        <v>1121021.0059865301</v>
+        <v>1623523.83953898</v>
       </c>
       <c r="C68">
-        <v>21652</v>
+        <v>21644</v>
       </c>
       <c r="D68">
         <v>210020</v>
@@ -1385,13 +1385,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>44138.494492584003</v>
+        <v>37981.728053482897</v>
       </c>
       <c r="B69">
-        <v>198362.58842508699</v>
+        <v>809515.62022329005</v>
       </c>
       <c r="C69">
-        <v>11247</v>
+        <v>11171</v>
       </c>
       <c r="D69">
         <v>230050</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>125418.30980459999</v>
+        <v>91398.046661303</v>
       </c>
       <c r="B70">
-        <v>1069955.0858251599</v>
+        <v>993201.15519633901</v>
       </c>
       <c r="C70">
-        <v>25509</v>
+        <v>25177</v>
       </c>
       <c r="D70">
         <v>210030</v>
@@ -1413,13 +1413,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>65455.958821212698</v>
+        <v>67807.6965003285</v>
       </c>
       <c r="B71">
-        <v>698350.21768945502</v>
+        <v>575035.61070356402</v>
       </c>
       <c r="C71">
-        <v>6935</v>
+        <v>7010</v>
       </c>
       <c r="D71">
         <v>430030</v>
@@ -1427,13 +1427,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>342827.21227590198</v>
+        <v>342356.471842792</v>
       </c>
       <c r="B72">
-        <v>5901394.0391282896</v>
+        <v>6853909.1686412496</v>
       </c>
       <c r="C72">
-        <v>32236</v>
+        <v>32267</v>
       </c>
       <c r="D72">
         <v>320020</v>
@@ -1441,13 +1441,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1231794.5432938</v>
+        <v>1206033.1182037999</v>
       </c>
       <c r="B73">
-        <v>21047869.505567901</v>
+        <v>21270198.631438501</v>
       </c>
       <c r="C73">
-        <v>78768</v>
+        <v>79054</v>
       </c>
       <c r="D73">
         <v>430040</v>
@@ -1455,13 +1455,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>21914.3074549669</v>
+        <v>19616.838402998899</v>
       </c>
       <c r="B74">
-        <v>172796.17517587199</v>
+        <v>76242.934787489197</v>
       </c>
       <c r="C74">
-        <v>5215</v>
+        <v>5211</v>
       </c>
       <c r="D74">
         <v>220027</v>
@@ -1469,13 +1469,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>61363.7311285428</v>
+        <v>59583.126181193002</v>
       </c>
       <c r="B75">
-        <v>436545.93347553298</v>
+        <v>443653.610924571</v>
       </c>
       <c r="C75">
-        <v>4188</v>
+        <v>4244</v>
       </c>
       <c r="D75">
         <v>430045</v>
@@ -1483,13 +1483,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>392329.12288300903</v>
+        <v>445638.39021350798</v>
       </c>
       <c r="B76">
-        <v>1729349.9511452799</v>
+        <v>1563482.06786091</v>
       </c>
       <c r="C76">
-        <v>54353</v>
+        <v>54035</v>
       </c>
       <c r="D76">
         <v>150040</v>
@@ -1497,13 +1497,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>73820.164768727103</v>
+        <v>73648.361042357195</v>
       </c>
       <c r="B77">
-        <v>801681.58157789498</v>
+        <v>634488.27207644796</v>
       </c>
       <c r="C77">
-        <v>13864</v>
+        <v>13878</v>
       </c>
       <c r="D77">
         <v>240050</v>
@@ -1511,13 +1511,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>493955.30245363998</v>
+        <v>502121.64284317603</v>
       </c>
       <c r="B78">
-        <v>9104822.3478588592</v>
+        <v>8092762.7696454199</v>
       </c>
       <c r="C78">
-        <v>25805</v>
+        <v>25468</v>
       </c>
       <c r="D78">
         <v>520030</v>
@@ -1525,13 +1525,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1437861.2125860499</v>
+        <v>1400008.52782623</v>
       </c>
       <c r="B79">
-        <v>32827142.239109199</v>
+        <v>30306152.209948499</v>
       </c>
       <c r="C79">
-        <v>78176</v>
+        <v>77618</v>
       </c>
       <c r="D79">
         <v>310160</v>
@@ -1539,13 +1539,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>231445.27989119099</v>
+        <v>227820.56076677301</v>
       </c>
       <c r="B80">
-        <v>4343709.0628684796</v>
+        <v>3938899.11127637</v>
       </c>
       <c r="C80">
-        <v>14916</v>
+        <v>14859</v>
       </c>
       <c r="D80">
         <v>320030</v>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>54340.158827665102</v>
+        <v>52290.410255919996</v>
       </c>
       <c r="B81">
-        <v>819513.13266953395</v>
+        <v>594463.610858222</v>
       </c>
       <c r="C81">
-        <v>4083</v>
+        <v>4064</v>
       </c>
       <c r="D81">
         <v>350080</v>
@@ -1567,13 +1567,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>53728.6602065236</v>
+        <v>57236.397107345903</v>
       </c>
       <c r="B82">
-        <v>369094.93658701301</v>
+        <v>362123.65985621902</v>
       </c>
       <c r="C82">
-        <v>6566</v>
+        <v>6490</v>
       </c>
       <c r="D82">
         <v>310163</v>
@@ -1581,13 +1581,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>131081.568623417</v>
+        <v>130386.834564155</v>
       </c>
       <c r="B83">
-        <v>1159175.3660601799</v>
+        <v>899846.60428673797</v>
       </c>
       <c r="C83">
-        <v>9794</v>
+        <v>9737</v>
       </c>
       <c r="D83">
         <v>420070</v>
@@ -1595,13 +1595,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>15541.5004983586</v>
+        <v>14718.1708995974</v>
       </c>
       <c r="B84">
-        <v>271648.61259907403</v>
+        <v>128528.634001535</v>
       </c>
       <c r="C84">
-        <v>2461</v>
+        <v>2446</v>
       </c>
       <c r="D84">
         <v>250057</v>
@@ -1609,13 +1609,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>527253.52940221503</v>
+        <v>477295.00778824597</v>
       </c>
       <c r="B85">
-        <v>2591679.7037267098</v>
+        <v>2838529.76370636</v>
       </c>
       <c r="C85">
-        <v>19057</v>
+        <v>18868</v>
       </c>
       <c r="D85">
         <v>250060</v>
@@ -1623,13 +1623,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>190123.76890305601</v>
+        <v>185784.56962353</v>
       </c>
       <c r="B86">
-        <v>1579735.1797082799</v>
+        <v>1243325.18074796</v>
       </c>
       <c r="C86">
-        <v>38248</v>
+        <v>38242</v>
       </c>
       <c r="D86">
         <v>260070</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>47865.808700438902</v>
+        <v>50354.271735300303</v>
       </c>
       <c r="B87">
-        <v>1565705.1503614299</v>
+        <v>963548.32865858602</v>
       </c>
       <c r="C87">
-        <v>5645</v>
+        <v>5686</v>
       </c>
       <c r="D87">
         <v>170035</v>
@@ -1651,13 +1651,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>51063.623355524302</v>
+        <v>32940.978398032297</v>
       </c>
       <c r="B88">
-        <v>75257.721076684102</v>
+        <v>61173.640330702503</v>
       </c>
       <c r="C88">
-        <v>6234</v>
+        <v>6327</v>
       </c>
       <c r="D88">
         <v>290090</v>
@@ -1665,13 +1665,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>79244.593684361505</v>
+        <v>74644.186733226103</v>
       </c>
       <c r="B89">
-        <v>854372.68652695697</v>
+        <v>1085987.8766317801</v>
       </c>
       <c r="C89">
-        <v>7480</v>
+        <v>7553</v>
       </c>
       <c r="D89">
         <v>170040</v>
@@ -1679,13 +1679,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>370940.17659424897</v>
+        <v>361916.41708122398</v>
       </c>
       <c r="B90">
-        <v>11174221.281153901</v>
+        <v>14422642.7204402</v>
       </c>
       <c r="C90">
-        <v>33466</v>
+        <v>33562</v>
       </c>
       <c r="D90">
         <v>150050</v>
@@ -1693,13 +1693,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>307269.29421916802</v>
+        <v>294954.12422285503</v>
       </c>
       <c r="B91">
-        <v>4009935.8734502699</v>
+        <v>3081837.8108784701</v>
       </c>
       <c r="C91">
-        <v>41028</v>
+        <v>40749</v>
       </c>
       <c r="D91">
         <v>310170</v>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>22967.7355987726</v>
+        <v>23849.867893983901</v>
       </c>
       <c r="B92">
-        <v>126061.21913769899</v>
+        <v>60845.285576179602</v>
       </c>
       <c r="C92">
-        <v>4922</v>
+        <v>4945</v>
       </c>
       <c r="D92">
         <v>240060</v>
@@ -1721,13 +1721,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>896636.41342849005</v>
+        <v>876215.89012566803</v>
       </c>
       <c r="B93">
-        <v>14306690.316598199</v>
+        <v>14391103.255034</v>
       </c>
       <c r="C93">
-        <v>111586</v>
+        <v>110256</v>
       </c>
       <c r="D93">
         <v>410040</v>
@@ -1735,13 +1735,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>76994.011452721999</v>
+        <v>83658.382114844804</v>
       </c>
       <c r="B94">
-        <v>514011.94301246997</v>
+        <v>835763.35067039996</v>
       </c>
       <c r="C94">
-        <v>2098</v>
+        <v>2106</v>
       </c>
       <c r="D94">
         <v>430047</v>
@@ -1749,13 +1749,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>25148.2603309673</v>
+        <v>25209.7722874623</v>
       </c>
       <c r="B95">
-        <v>225393.65017571699</v>
+        <v>206715.673817687</v>
       </c>
       <c r="C95">
-        <v>2084</v>
+        <v>2089</v>
       </c>
       <c r="D95">
         <v>520050</v>
@@ -1763,13 +1763,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>46838.885410324299</v>
+        <v>50358.753147015697</v>
       </c>
       <c r="B96">
-        <v>488773.19664265902</v>
+        <v>504962.40648241201</v>
       </c>
       <c r="C96">
-        <v>7458</v>
+        <v>7437</v>
       </c>
       <c r="D96">
         <v>310180</v>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>89657.604167157202</v>
+        <v>87930.8119103223</v>
       </c>
       <c r="B97">
-        <v>904459.12691832101</v>
+        <v>1168427.9928422701</v>
       </c>
       <c r="C97">
-        <v>7752</v>
+        <v>7871</v>
       </c>
       <c r="D97">
         <v>430050</v>
@@ -1791,13 +1791,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>212903.96034713401</v>
+        <v>205885.51027962001</v>
       </c>
       <c r="B98">
-        <v>3084258.7729954799</v>
+        <v>3114548.5616135201</v>
       </c>
       <c r="C98">
-        <v>19513</v>
+        <v>19391</v>
       </c>
       <c r="D98">
         <v>310190</v>
@@ -1805,13 +1805,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>780826.34250552801</v>
+        <v>718080.71907001501</v>
       </c>
       <c r="B99">
-        <v>13921844.273083</v>
+        <v>14091240.2827152</v>
       </c>
       <c r="C99">
-        <v>49877</v>
+        <v>49761</v>
       </c>
       <c r="D99">
         <v>510025</v>
@@ -1819,13 +1819,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>278694.88504544401</v>
+        <v>271545.62088671001</v>
       </c>
       <c r="B100">
-        <v>2239028.4096119199</v>
+        <v>2281018.8561793598</v>
       </c>
       <c r="C100">
-        <v>25652</v>
+        <v>25728</v>
       </c>
       <c r="D100">
         <v>110001</v>
@@ -1833,13 +1833,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>72225.984496638193</v>
+        <v>76961.584955462298</v>
       </c>
       <c r="B101">
-        <v>430314.25985154603</v>
+        <v>423763.50655614602</v>
       </c>
       <c r="C101">
-        <v>4035</v>
+        <v>4010</v>
       </c>
       <c r="D101">
         <v>350090</v>
@@ -1847,13 +1847,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>2912960.4588314602</v>
+        <v>2461499.6890165601</v>
       </c>
       <c r="B102">
-        <v>118027987.077389</v>
+        <v>70131029.288776293</v>
       </c>
       <c r="C102">
-        <v>106768</v>
+        <v>105106</v>
       </c>
       <c r="D102">
         <v>150060</v>
@@ -1861,13 +1861,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>40513.723012172901</v>
+        <v>36484.066193573097</v>
       </c>
       <c r="B103">
-        <v>1140329.0282020301</v>
+        <v>207981.339907994</v>
       </c>
       <c r="C103">
-        <v>11699</v>
+        <v>11564</v>
       </c>
       <c r="D103">
         <v>210040</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>43314.149281968697</v>
+        <v>44029.237630694799</v>
       </c>
       <c r="B104">
-        <v>264089.26709139399</v>
+        <v>527343.94657098595</v>
       </c>
       <c r="C104">
-        <v>3544</v>
+        <v>3754</v>
       </c>
       <c r="D104">
         <v>410045</v>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>35005.630821377497</v>
+        <v>29901.1317374633</v>
       </c>
       <c r="B105">
-        <v>297487.59142160998</v>
+        <v>290159.31159237301</v>
       </c>
       <c r="C105">
-        <v>7271</v>
+        <v>7196</v>
       </c>
       <c r="D105">
         <v>230060</v>
@@ -1903,13 +1903,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>124336.447773081</v>
+        <v>120179.380773545</v>
       </c>
       <c r="B106">
-        <v>1541784.7480541901</v>
+        <v>1531560.19280609</v>
       </c>
       <c r="C106">
-        <v>14371</v>
+        <v>14306</v>
       </c>
       <c r="D106">
         <v>310200</v>
@@ -1917,13 +1917,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>99422.079313273396</v>
+        <v>93850.862596401304</v>
       </c>
       <c r="B107">
-        <v>792610.38588555495</v>
+        <v>997987.82365975995</v>
       </c>
       <c r="C107">
-        <v>22865</v>
+        <v>22853</v>
       </c>
       <c r="D107">
         <v>260080</v>
@@ -1931,13 +1931,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>289184.09347861999</v>
+        <v>267434.50281945302</v>
       </c>
       <c r="B108">
-        <v>5712092.4357869104</v>
+        <v>5858193.1522580804</v>
       </c>
       <c r="C108">
-        <v>16159</v>
+        <v>16137</v>
       </c>
       <c r="D108">
         <v>350100</v>
@@ -1945,13 +1945,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>140422.750264648</v>
+        <v>144338.493920632</v>
       </c>
       <c r="B109">
-        <v>1675747.8522707601</v>
+        <v>1106890.6295218801</v>
       </c>
       <c r="C109">
-        <v>16301</v>
+        <v>16428</v>
       </c>
       <c r="D109">
         <v>140005</v>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>40065.467143133603</v>
+        <v>46132.052367231903</v>
       </c>
       <c r="B110">
-        <v>234132.69256219699</v>
+        <v>177620.05912833399</v>
       </c>
       <c r="C110">
-        <v>1841</v>
+        <v>1856</v>
       </c>
       <c r="D110">
         <v>430055</v>
@@ -1973,13 +1973,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>67549.698415156396</v>
+        <v>58148.911341648301</v>
       </c>
       <c r="B111">
-        <v>876260.47959308897</v>
+        <v>597443.08792944497</v>
       </c>
       <c r="C111">
-        <v>4183</v>
+        <v>4193</v>
       </c>
       <c r="D111">
         <v>350110</v>
@@ -1987,13 +1987,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>148419.417323109</v>
+        <v>131111.84790065399</v>
       </c>
       <c r="B112">
-        <v>1040377.94327798</v>
+        <v>568631.80299055902</v>
       </c>
       <c r="C112">
-        <v>26056</v>
+        <v>25748</v>
       </c>
       <c r="D112">
         <v>210043</v>
@@ -2001,13 +2001,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>99651.465433073099</v>
+        <v>106950.535019253</v>
       </c>
       <c r="B113">
-        <v>1661022.36652423</v>
+        <v>1522900.42748965</v>
       </c>
       <c r="C113">
-        <v>31271</v>
+        <v>31253</v>
       </c>
       <c r="D113">
         <v>210047</v>
@@ -2015,13 +2015,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>155808.10449552801</v>
+        <v>145755.42672454799</v>
       </c>
       <c r="B114">
-        <v>973403.58408631606</v>
+        <v>594974.26204273198</v>
       </c>
       <c r="C114">
-        <v>13884</v>
+        <v>13827</v>
       </c>
       <c r="D114">
         <v>110037</v>
@@ -2029,13 +2029,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>572050.89413268096</v>
+        <v>597280.81035099505</v>
       </c>
       <c r="B115">
-        <v>8403792.5682976395</v>
+        <v>7616479.6258659996</v>
       </c>
       <c r="C115">
-        <v>17168</v>
+        <v>16818</v>
       </c>
       <c r="D115">
         <v>510030</v>
@@ -2043,13 +2043,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>33238.195262280897</v>
+        <v>31741.425487089899</v>
       </c>
       <c r="B116">
-        <v>199926.00961498299</v>
+        <v>208175.23512256099</v>
       </c>
       <c r="C116">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="D116">
         <v>420075</v>
@@ -2057,13 +2057,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>50593.769682244201</v>
+        <v>48284.122058877401</v>
       </c>
       <c r="B117">
-        <v>620881.17244443705</v>
+        <v>1062277.5956146501</v>
       </c>
       <c r="C117">
-        <v>5980</v>
+        <v>5809</v>
       </c>
       <c r="D117">
         <v>510035</v>
@@ -2071,13 +2071,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>41507.384296917597</v>
+        <v>40191.970176522598</v>
       </c>
       <c r="B118">
-        <v>444687.99531022902</v>
+        <v>423666.88760108303</v>
       </c>
       <c r="C118">
-        <v>5655</v>
+        <v>5605</v>
       </c>
       <c r="D118">
         <v>310205</v>
@@ -2085,13 +2085,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>47937.184434605297</v>
+        <v>46464.010971031101</v>
       </c>
       <c r="B119">
-        <v>555881.00087738596</v>
+        <v>621900.15315332601</v>
       </c>
       <c r="C119">
-        <v>3017</v>
+        <v>3035</v>
       </c>
       <c r="D119">
         <v>430057</v>
@@ -2099,13 +2099,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>333483.344002967</v>
+        <v>360960.04897545098</v>
       </c>
       <c r="B120">
-        <v>3685667.6301625799</v>
+        <v>3442788.6333037699</v>
       </c>
       <c r="C120">
-        <v>11071</v>
+        <v>10909</v>
       </c>
       <c r="D120">
         <v>510040</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>348004.500581934</v>
+        <v>452150.03497986001</v>
       </c>
       <c r="B121">
-        <v>12679699.883881699</v>
+        <v>9493800.0331894606</v>
       </c>
       <c r="C121">
-        <v>5307</v>
+        <v>5140</v>
       </c>
       <c r="D121">
         <v>520055</v>
@@ -2127,13 +2127,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>63256.140798079003</v>
+        <v>49978.9453496032</v>
       </c>
       <c r="B122">
-        <v>488383.373891294</v>
+        <v>440471.12993453199</v>
       </c>
       <c r="C122">
-        <v>8532</v>
+        <v>8535</v>
       </c>
       <c r="D122">
         <v>315350</v>
@@ -2141,13 +2141,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>50432.5319452361</v>
+        <v>45649.444183234598</v>
       </c>
       <c r="B123">
-        <v>131198.94788014999</v>
+        <v>223800.24450084401</v>
       </c>
       <c r="C123">
-        <v>13967</v>
+        <v>13923</v>
       </c>
       <c r="D123">
         <v>220030</v>
@@ -2155,13 +2155,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>58268.700422363901</v>
+        <v>57724.105651809703</v>
       </c>
       <c r="B124">
-        <v>907263.09426917799</v>
+        <v>833140.49004576495</v>
       </c>
       <c r="C124">
-        <v>10592</v>
+        <v>10476</v>
       </c>
       <c r="D124">
         <v>510050</v>
@@ -2169,13 +2169,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>203203.565276876</v>
+        <v>196980.65163797699</v>
       </c>
       <c r="B125">
-        <v>2625774.0339468</v>
+        <v>2293721.9386088699</v>
       </c>
       <c r="C125">
-        <v>14427</v>
+        <v>14334</v>
       </c>
       <c r="D125">
         <v>410060</v>
@@ -2183,13 +2183,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>171883.86996148599</v>
+        <v>170301.53877156699</v>
       </c>
       <c r="B126">
-        <v>1286192.48193003</v>
+        <v>1656967.9717073599</v>
       </c>
       <c r="C126">
-        <v>19841</v>
+        <v>19459</v>
       </c>
       <c r="D126">
         <v>110040</v>
@@ -2197,13 +2197,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>87874.301842181303</v>
+        <v>83466.752240154703</v>
       </c>
       <c r="B127">
-        <v>3681345.66013858</v>
+        <v>1676415.00250484</v>
       </c>
       <c r="C127">
-        <v>7328</v>
+        <v>7262</v>
       </c>
       <c r="D127">
         <v>520060</v>
@@ -2211,13 +2211,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>210920.15798810401</v>
+        <v>197954.75525082799</v>
       </c>
       <c r="B128">
-        <v>526389.26802210405</v>
+        <v>883924.39254618704</v>
       </c>
       <c r="C128">
-        <v>10931</v>
+        <v>10904</v>
       </c>
       <c r="D128">
         <v>210050</v>
@@ -2225,13 +2225,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>159742.88539032399</v>
+        <v>163006.55310235199</v>
       </c>
       <c r="B129">
-        <v>1576268.2727151399</v>
+        <v>1361193.7376778801</v>
       </c>
       <c r="C129">
-        <v>10317</v>
+        <v>10350</v>
       </c>
       <c r="D129">
         <v>410070</v>
@@ -2239,13 +2239,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>77272.721829054004</v>
+        <v>83660.836429622403</v>
       </c>
       <c r="B130">
-        <v>503275.69303442299</v>
+        <v>395658.86707249202</v>
       </c>
       <c r="C130">
-        <v>12006</v>
+        <v>12120</v>
       </c>
       <c r="D130">
         <v>310210</v>
@@ -2253,13 +2253,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>55408.453442844097</v>
+        <v>54805.778997506597</v>
       </c>
       <c r="B131">
-        <v>737653.687856187</v>
+        <v>903014.11600774399</v>
       </c>
       <c r="C131">
-        <v>7888</v>
+        <v>7841</v>
       </c>
       <c r="D131">
         <v>320035</v>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>92589.114753435599</v>
+        <v>83582.085145602105</v>
       </c>
       <c r="B132">
-        <v>504621.35389705101</v>
+        <v>674829.91956106399</v>
       </c>
       <c r="C132">
-        <v>16823</v>
+        <v>16767</v>
       </c>
       <c r="D132">
         <v>230070</v>
@@ -2281,13 +2281,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>659229.52212842205</v>
+        <v>530612.95809623203</v>
       </c>
       <c r="B133">
-        <v>5008455.9108117102</v>
+        <v>4638216.3080764096</v>
       </c>
       <c r="C133">
-        <v>9376</v>
+        <v>9070</v>
       </c>
       <c r="D133">
         <v>510060</v>
@@ -2295,13 +2295,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>473009.78981770499</v>
+        <v>360605.04288409703</v>
       </c>
       <c r="B134">
-        <v>7830407.7511928901</v>
+        <v>14797423.595350301</v>
       </c>
       <c r="C134">
-        <v>13680</v>
+        <v>13440</v>
       </c>
       <c r="D134">
         <v>240070</v>
@@ -2309,13 +2309,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>215361.23396370499</v>
+        <v>188325.60166692999</v>
       </c>
       <c r="B135">
-        <v>1438375.5232078901</v>
+        <v>1189704.77928588</v>
       </c>
       <c r="C135">
-        <v>39625</v>
+        <v>39522</v>
       </c>
       <c r="D135">
         <v>220040</v>
@@ -2323,13 +2323,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>194113.84041276699</v>
+        <v>189784.650830656</v>
       </c>
       <c r="B136">
-        <v>3178513.1174964001</v>
+        <v>3301628.6422212501</v>
       </c>
       <c r="C136">
-        <v>21619</v>
+        <v>21489</v>
       </c>
       <c r="D136">
         <v>410050</v>
@@ -2337,13 +2337,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>1127777.6458375901</v>
+        <v>1219491.57485119</v>
       </c>
       <c r="B137">
-        <v>10559612.629272001</v>
+        <v>6382470.4689463098</v>
       </c>
       <c r="C137">
-        <v>17924</v>
+        <v>17784</v>
       </c>
       <c r="D137">
         <v>350115</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>24029.943613678701</v>
+        <v>24128.475183909799</v>
       </c>
       <c r="B138">
-        <v>209731.11250802901</v>
+        <v>311672.08472402499</v>
       </c>
       <c r="C138">
-        <v>4343</v>
+        <v>4395</v>
       </c>
       <c r="D138">
         <v>310220</v>
@@ -2365,13 +2365,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>79501.713633255902</v>
+        <v>72296.909515819396</v>
       </c>
       <c r="B139">
-        <v>542922.21165771806</v>
+        <v>169554.93842856801</v>
       </c>
       <c r="C139">
-        <v>15357</v>
+        <v>15166</v>
       </c>
       <c r="D139">
         <v>130002</v>
@@ -2379,13 +2379,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>30379.085785805699</v>
+        <v>31171.391985354301</v>
       </c>
       <c r="B140">
-        <v>400467.19601416501</v>
+        <v>444756.98998761602</v>
       </c>
       <c r="C140">
-        <v>3153</v>
+        <v>3137</v>
       </c>
       <c r="D140">
         <v>350150</v>
@@ -2393,13 +2393,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>166695.84766920199</v>
+        <v>173123.57593463</v>
       </c>
       <c r="B141">
-        <v>740202.29090277804</v>
+        <v>872398.79905603896</v>
       </c>
       <c r="C141">
-        <v>15630</v>
+        <v>15642</v>
       </c>
       <c r="D141">
         <v>310230</v>
@@ -2407,13 +2407,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>1613980.39514004</v>
+        <v>1590786.1363397201</v>
       </c>
       <c r="B142">
-        <v>33361137.473728601</v>
+        <v>34016554.756435402</v>
       </c>
       <c r="C142">
-        <v>205683</v>
+        <v>204750</v>
       </c>
       <c r="D142">
         <v>430060</v>
@@ -2421,13 +2421,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>168114.25126296899</v>
+        <v>173448.469135013</v>
       </c>
       <c r="B143">
-        <v>1260610.90773188</v>
+        <v>1384215.20202303</v>
       </c>
       <c r="C143">
-        <v>8546</v>
+        <v>8557</v>
       </c>
       <c r="D143">
         <v>170070</v>
@@ -2435,13 +2435,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>151606.75839309301</v>
+        <v>152062.18592971901</v>
       </c>
       <c r="B144">
-        <v>1672542.5273786399</v>
+        <v>1345331.4845767899</v>
       </c>
       <c r="C144">
-        <v>17228</v>
+        <v>17399</v>
       </c>
       <c r="D144">
         <v>110034</v>
@@ -2449,13 +2449,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>50425.739384902503</v>
+        <v>53420.768992541598</v>
       </c>
       <c r="B145">
-        <v>31914531.5693985</v>
+        <v>34077974.718007103</v>
       </c>
       <c r="C145">
-        <v>3661</v>
+        <v>3657</v>
       </c>
       <c r="D145">
         <v>310240</v>
@@ -2463,13 +2463,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>41983.050891074003</v>
+        <v>30817.7089168448</v>
       </c>
       <c r="B146">
-        <v>444517.91008134698</v>
+        <v>249808.80249240299</v>
       </c>
       <c r="C146">
-        <v>5249</v>
+        <v>5216</v>
       </c>
       <c r="D146">
         <v>220045</v>
@@ -2477,13 +2477,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>77241.9229382536</v>
+        <v>76021.881527695194</v>
       </c>
       <c r="B147">
-        <v>1313475.65157997</v>
+        <v>1110466.64249792</v>
       </c>
       <c r="C147">
-        <v>8499</v>
+        <v>8448</v>
       </c>
       <c r="D147">
         <v>520080</v>
@@ -2491,13 +2491,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>133147.73298953401</v>
+        <v>152911.090053047</v>
       </c>
       <c r="B148">
-        <v>2483266.9698721101</v>
+        <v>2252346.0417768699</v>
       </c>
       <c r="C148">
-        <v>10965</v>
+        <v>10869</v>
       </c>
       <c r="D148">
         <v>410080</v>
@@ -2505,13 +2505,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>544208.94692267</v>
+        <v>559324.07812117401</v>
       </c>
       <c r="B149">
-        <v>7004780.2835743399</v>
+        <v>6879743.1523305504</v>
       </c>
       <c r="C149">
-        <v>35641</v>
+        <v>35559</v>
       </c>
       <c r="D149">
         <v>310150</v>
@@ -2519,13 +2519,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>78205.957506217193</v>
+        <v>95784.420307575798</v>
       </c>
       <c r="B150">
-        <v>746390.69893058296</v>
+        <v>1071665.5819234501</v>
       </c>
       <c r="C150">
-        <v>10721</v>
+        <v>10432</v>
       </c>
       <c r="D150">
         <v>140002</v>
@@ -2533,13 +2533,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>521672.064576643</v>
+        <v>504967.42202112102</v>
       </c>
       <c r="B151">
-        <v>7599058.2534508798</v>
+        <v>6828242.692032</v>
       </c>
       <c r="C151">
-        <v>37144</v>
+        <v>36686</v>
       </c>
       <c r="D151">
         <v>500060</v>
@@ -2547,13 +2547,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>57353.259069741202</v>
+        <v>63490.551237626198</v>
       </c>
       <c r="B152">
-        <v>547149.82250620204</v>
+        <v>1138858.4616505699</v>
       </c>
       <c r="C152">
-        <v>5885</v>
+        <v>5815</v>
       </c>
       <c r="D152">
         <v>410090</v>
@@ -2561,13 +2561,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>123051.477269917</v>
+        <v>106986.612253138</v>
       </c>
       <c r="B153">
-        <v>1762020.64912778</v>
+        <v>1484801.4643768</v>
       </c>
       <c r="C153">
-        <v>8553</v>
+        <v>8483</v>
       </c>
       <c r="D153">
         <v>160010</v>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>26120.849777535401</v>
+        <v>25105.188246507601</v>
       </c>
       <c r="B154">
-        <v>224738.338087793</v>
+        <v>213332.743237071</v>
       </c>
       <c r="C154">
-        <v>6731</v>
+        <v>6669</v>
       </c>
       <c r="D154">
         <v>210055</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>120536.070756181</v>
+        <v>124768.020984484</v>
       </c>
       <c r="B155">
-        <v>690513.90210352698</v>
+        <v>576431.14239950001</v>
       </c>
       <c r="C155">
-        <v>22600</v>
+        <v>22555</v>
       </c>
       <c r="D155">
         <v>260090</v>
@@ -2603,13 +2603,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>55201.449281459303</v>
+        <v>65491.686537180402</v>
       </c>
       <c r="B156">
-        <v>342420.27777474798</v>
+        <v>354761.70137792802</v>
       </c>
       <c r="C156">
-        <v>6737</v>
+        <v>6693</v>
       </c>
       <c r="D156">
         <v>430063</v>
@@ -2617,13 +2617,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>33210.468809989303</v>
+        <v>38422.022577812502</v>
       </c>
       <c r="B157">
-        <v>708604.44188664702</v>
+        <v>488085.755107857</v>
       </c>
       <c r="C157">
-        <v>3658</v>
+        <v>3625</v>
       </c>
       <c r="D157">
         <v>520082</v>
@@ -2631,13 +2631,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>82371.779875438806</v>
+        <v>73187.129661625193</v>
       </c>
       <c r="B158">
-        <v>581188.61818528106</v>
+        <v>589476.50532179698</v>
       </c>
       <c r="C158">
-        <v>17305</v>
+        <v>17298</v>
       </c>
       <c r="D158">
         <v>220050</v>
@@ -2645,13 +2645,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>165900.718287433</v>
+        <v>155200.754120514</v>
       </c>
       <c r="B159">
-        <v>1028999.72654846</v>
+        <v>828354.77155518695</v>
       </c>
       <c r="C159">
-        <v>39974</v>
+        <v>39544</v>
       </c>
       <c r="D159">
         <v>210060</v>
@@ -2659,13 +2659,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>217053.145074548</v>
+        <v>213290.98546097</v>
       </c>
       <c r="B160">
-        <v>4364946.2550494401</v>
+        <v>3015323.2792919199</v>
       </c>
       <c r="C160">
-        <v>37557</v>
+        <v>37081</v>
       </c>
       <c r="D160">
         <v>290100</v>
@@ -2673,13 +2673,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>47016.610302356101</v>
+        <v>47623.637709711802</v>
       </c>
       <c r="B161">
-        <v>183396.087919418</v>
+        <v>197684.90092566999</v>
       </c>
       <c r="C161">
-        <v>10644</v>
+        <v>10436</v>
       </c>
       <c r="D161">
         <v>130006</v>
@@ -2687,13 +2687,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>7601968.85606906</v>
+        <v>8023375.71562998</v>
       </c>
       <c r="B162">
-        <v>177859752.67107999</v>
+        <v>176887253.09066901</v>
       </c>
       <c r="C162">
-        <v>226970</v>
+        <v>224551</v>
       </c>
       <c r="D162">
         <v>350160</v>
@@ -2701,13 +2701,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>43258.059021594003</v>
+        <v>55829.906080238499</v>
       </c>
       <c r="B163">
-        <v>330739.22889606102</v>
+        <v>428182.540327358</v>
       </c>
       <c r="C163">
-        <v>5866</v>
+        <v>5813</v>
       </c>
       <c r="D163">
         <v>520085</v>
@@ -2715,13 +2715,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>58134.068601250103</v>
+        <v>57789.980733342098</v>
       </c>
       <c r="B164">
-        <v>451181.226263127</v>
+        <v>494622.115218369</v>
       </c>
       <c r="C164">
-        <v>7565</v>
+        <v>7560</v>
       </c>
       <c r="D164">
         <v>430064</v>
@@ -2729,13 +2729,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>270228.151861772</v>
+        <v>227355.09539471299</v>
       </c>
       <c r="B165">
-        <v>3840157.39521243</v>
+        <v>8099124.1908176299</v>
       </c>
       <c r="C165">
-        <v>41672</v>
+        <v>41227</v>
       </c>
       <c r="D165">
         <v>230075</v>
@@ -2743,13 +2743,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>39522.0719062844</v>
+        <v>46060.473887760898</v>
       </c>
       <c r="B166">
-        <v>353285.43731846701</v>
+        <v>319169.21282298199</v>
       </c>
       <c r="C166">
-        <v>3528</v>
+        <v>3570</v>
       </c>
       <c r="D166">
         <v>520090</v>
@@ -2757,13 +2757,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>12579.2898704417</v>
+        <v>12848.403096849401</v>
       </c>
       <c r="B167">
-        <v>63225.048022649797</v>
+        <v>88164.388678089497</v>
       </c>
       <c r="C167">
-        <v>2195</v>
+        <v>2176</v>
       </c>
       <c r="D167">
         <v>250073</v>
@@ -2771,13 +2771,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>2528630.8836485399</v>
+        <v>2600818.5292509301</v>
       </c>
       <c r="B168">
-        <v>48241779.602484003</v>
+        <v>43373956.287927598</v>
       </c>
       <c r="C168">
-        <v>69808</v>
+        <v>69322</v>
       </c>
       <c r="D168">
         <v>350190</v>
@@ -2785,13 +2785,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>18318.162396830699</v>
+        <v>16954.040524073102</v>
       </c>
       <c r="B169">
-        <v>18638.4459028118</v>
+        <v>53128.684963547603</v>
       </c>
       <c r="C169">
-        <v>2366</v>
+        <v>2358</v>
       </c>
       <c r="D169">
         <v>280010</v>
@@ -2799,13 +2799,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>28418.904688118499</v>
+        <v>28537.700609006301</v>
       </c>
       <c r="B170">
-        <v>121626.644161566</v>
+        <v>84267.024337007402</v>
       </c>
       <c r="C170">
-        <v>4997</v>
+        <v>5023</v>
       </c>
       <c r="D170">
         <v>310250</v>
@@ -2813,13 +2813,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>338132.79770069802</v>
+        <v>325682.66951473698</v>
       </c>
       <c r="B171">
-        <v>3456999.32925084</v>
+        <v>3285237.6812548698</v>
       </c>
       <c r="C171">
-        <v>18439</v>
+        <v>18281</v>
       </c>
       <c r="D171">
         <v>410100</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>194435.85336122601</v>
+        <v>182993.03438220799</v>
       </c>
       <c r="B172">
-        <v>3817361.7767974501</v>
+        <v>2921198.0197332501</v>
       </c>
       <c r="C172">
-        <v>26458</v>
+        <v>26477</v>
       </c>
       <c r="D172">
         <v>290110</v>
@@ -2841,13 +2841,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>65320.753822494698</v>
+        <v>61132.914982060996</v>
       </c>
       <c r="B173">
-        <v>741966.66786041204</v>
+        <v>941482.94001178304</v>
       </c>
       <c r="C173">
-        <v>16904</v>
+        <v>16884</v>
       </c>
       <c r="D173">
         <v>290115</v>
@@ -2855,13 +2855,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>514896.166228235</v>
+        <v>518003.37534073798</v>
       </c>
       <c r="B174">
-        <v>7495275.4518458704</v>
+        <v>8084975.1177811502</v>
       </c>
       <c r="C174">
-        <v>37691</v>
+        <v>37165</v>
       </c>
       <c r="D174">
         <v>350170</v>
@@ -2869,13 +2869,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>63430.870708034803</v>
+        <v>55401.800391146302</v>
       </c>
       <c r="B175">
-        <v>1149332.0105429001</v>
+        <v>1340336.4362118801</v>
       </c>
       <c r="C175">
-        <v>5930</v>
+        <v>5916</v>
       </c>
       <c r="D175">
         <v>350180</v>
@@ -2883,13 +2883,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>92760.862221880903</v>
+        <v>93049.252363051302</v>
       </c>
       <c r="B176">
-        <v>221941.077219625</v>
+        <v>145527.67834180899</v>
       </c>
       <c r="C176">
-        <v>17972</v>
+        <v>17989</v>
       </c>
       <c r="D176">
         <v>270020</v>
@@ -2897,13 +2897,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>99287.846577209595</v>
+        <v>90991.393354051004</v>
       </c>
       <c r="B177">
-        <v>481505.03589379799</v>
+        <v>466915.43759024399</v>
       </c>
       <c r="C177">
-        <v>20388</v>
+        <v>20698</v>
       </c>
       <c r="D177">
         <v>290120</v>
@@ -2911,13 +2911,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>48680.160555836999</v>
+        <v>45880.149772326702</v>
       </c>
       <c r="B178">
-        <v>412055.87649325602</v>
+        <v>310701.65388050501</v>
       </c>
       <c r="C178">
-        <v>2922</v>
+        <v>2929</v>
       </c>
       <c r="D178">
         <v>410105</v>
@@ -2925,13 +2925,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>104561.817478268</v>
+        <v>101755.280480716</v>
       </c>
       <c r="B179">
-        <v>853374.28528663504</v>
+        <v>1272598.94079244</v>
       </c>
       <c r="C179">
-        <v>26618</v>
+        <v>26339</v>
       </c>
       <c r="D179">
         <v>210070</v>
@@ -2939,13 +2939,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>123311.187214395</v>
+        <v>122705.523042107</v>
       </c>
       <c r="B180">
-        <v>424127.88313582499</v>
+        <v>181035.11554029601</v>
       </c>
       <c r="C180">
-        <v>27051</v>
+        <v>26547</v>
       </c>
       <c r="D180">
         <v>150070</v>
@@ -2953,13 +2953,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>99833.097817729402</v>
+        <v>98759.133352211298</v>
       </c>
       <c r="B181">
-        <v>3347702.9746397198</v>
+        <v>3042090.26825323</v>
       </c>
       <c r="C181">
-        <v>4672</v>
+        <v>4612</v>
       </c>
       <c r="D181">
         <v>350200</v>
@@ -2967,13 +2967,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>63499.692592953303</v>
+        <v>67135.405982184195</v>
       </c>
       <c r="B182">
-        <v>512436.536630877</v>
+        <v>448730.64002665703</v>
       </c>
       <c r="C182">
-        <v>11981</v>
+        <v>11636</v>
       </c>
       <c r="D182">
         <v>130008</v>
@@ -2981,13 +2981,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>4258550.5448287502</v>
+        <v>3898499.5815474698</v>
       </c>
       <c r="B183">
-        <v>70365438.088402003</v>
+        <v>64272565.125578903</v>
       </c>
       <c r="C183">
-        <v>499776</v>
+        <v>493976</v>
       </c>
       <c r="D183">
         <v>150080</v>
@@ -2995,13 +2995,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>63521.238021891702</v>
+        <v>67712.926536228304</v>
       </c>
       <c r="B184">
-        <v>423571.713490455</v>
+        <v>557274.29232158104</v>
       </c>
       <c r="C184">
-        <v>9900</v>
+        <v>9952</v>
       </c>
       <c r="D184">
         <v>170100</v>
@@ -3009,13 +3009,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>189799.06342145</v>
+        <v>166960.490804967</v>
       </c>
       <c r="B185">
-        <v>3854895.0733354799</v>
+        <v>5234389.52220756</v>
       </c>
       <c r="C185">
-        <v>24525</v>
+        <v>23609</v>
       </c>
       <c r="D185">
         <v>150085</v>
@@ -3023,13 +3023,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>94338.121582921507</v>
+        <v>85170.940909668701</v>
       </c>
       <c r="B186">
-        <v>924929.66589276097</v>
+        <v>370027.44829940802</v>
       </c>
       <c r="C186">
-        <v>15057</v>
+        <v>14815</v>
       </c>
       <c r="D186">
         <v>210080</v>
@@ -3037,13 +3037,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>244033.69486712001</v>
+        <v>229050.02290431599</v>
       </c>
       <c r="B187">
-        <v>5566998.56558559</v>
+        <v>5293363.2029551901</v>
       </c>
       <c r="C187">
-        <v>24642</v>
+        <v>24534</v>
       </c>
       <c r="D187">
         <v>500070</v>
@@ -3051,13 +3051,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>127983.750961011</v>
+        <v>144972.509061705</v>
       </c>
       <c r="B188">
-        <v>2532800.1907498399</v>
+        <v>2820232.8213689299</v>
       </c>
       <c r="C188">
-        <v>8801</v>
+        <v>8758</v>
       </c>
       <c r="D188">
         <v>500080</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>3424143.3134995699</v>
+        <v>3251473.4280842999</v>
       </c>
       <c r="B189">
-        <v>73517945.447796106</v>
+        <v>80717805.928099096</v>
       </c>
       <c r="C189">
-        <v>27145</v>
+        <v>26658</v>
       </c>
       <c r="D189">
         <v>320040</v>
@@ -3079,13 +3079,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>84242.878698376502</v>
+        <v>129609.27025111399</v>
       </c>
       <c r="B190">
-        <v>810496.79141149705</v>
+        <v>578756.66152443003</v>
       </c>
       <c r="C190">
-        <v>6066</v>
+        <v>6145</v>
       </c>
       <c r="D190">
         <v>420080</v>
@@ -3093,13 +3093,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>56039.372973619</v>
+        <v>56311.830079241103</v>
       </c>
       <c r="B191">
-        <v>670779.11067762505</v>
+        <v>647853.99654743099</v>
       </c>
       <c r="C191">
-        <v>13716</v>
+        <v>14738</v>
       </c>
       <c r="D191">
         <v>290130</v>
@@ -3107,13 +3107,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>406525.69717298198</v>
+        <v>437884.734879472</v>
       </c>
       <c r="B192">
-        <v>5437269.5062071104</v>
+        <v>4581001.3197286604</v>
       </c>
       <c r="C192">
-        <v>20931</v>
+        <v>20988</v>
       </c>
       <c r="D192">
         <v>410110</v>
@@ -3121,13 +3121,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>106667.239715348</v>
+        <v>95685.1920031146</v>
       </c>
       <c r="B193">
-        <v>1499811.4356863799</v>
+        <v>2101327.23253481</v>
       </c>
       <c r="C193">
-        <v>14862</v>
+        <v>14936</v>
       </c>
       <c r="D193">
         <v>290135</v>
@@ -3135,13 +3135,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>535627.96328728704</v>
+        <v>545463.56493501703</v>
       </c>
       <c r="B194">
-        <v>10476021.209406</v>
+        <v>8714324.22869334</v>
       </c>
       <c r="C194">
-        <v>39761</v>
+        <v>39416</v>
       </c>
       <c r="D194">
         <v>310260</v>
@@ -3149,13 +3149,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>1554064.4818701199</v>
+        <v>1617315.6919352401</v>
       </c>
       <c r="B195">
-        <v>23322034.072037999</v>
+        <v>25463460.120081801</v>
       </c>
       <c r="C195">
-        <v>57198</v>
+        <v>57145</v>
       </c>
       <c r="D195">
         <v>350210</v>
@@ -3163,10 +3163,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>124608.94983188801</v>
+        <v>121731.22212939701</v>
       </c>
       <c r="B196">
-        <v>1381281.6551613</v>
+        <v>1251488.06708718</v>
       </c>
       <c r="C196">
         <v>12507</v>
@@ -3177,13 +3177,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>79270.094555144999</v>
+        <v>79962.550814796399</v>
       </c>
       <c r="B197">
-        <v>479872.82033412298</v>
+        <v>553004.89846443397</v>
       </c>
       <c r="C197">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="D197">
         <v>430066</v>
@@ -3191,13 +3191,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>572677.50929882203</v>
+        <v>532351.03142539202</v>
       </c>
       <c r="B198">
-        <v>5305131.9277475197</v>
+        <v>5275631.9838389996</v>
       </c>
       <c r="C198">
-        <v>23917</v>
+        <v>23666</v>
       </c>
       <c r="D198">
         <v>350220</v>
@@ -3205,13 +3205,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>60811.551594511497</v>
+        <v>55816.675056230197</v>
       </c>
       <c r="B199">
-        <v>751768.25761947699</v>
+        <v>446661.22974179301</v>
       </c>
       <c r="C199">
-        <v>10795</v>
+        <v>10706</v>
       </c>
       <c r="D199">
         <v>260100</v>
@@ -3219,13 +3219,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>77597.798363858295</v>
+        <v>81596.153073081703</v>
       </c>
       <c r="B200">
-        <v>759038.31005586602</v>
+        <v>775483.37090315204</v>
       </c>
       <c r="C200">
-        <v>5109</v>
+        <v>5166</v>
       </c>
       <c r="D200">
         <v>420090</v>
@@ -3233,13 +3233,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>56138.6005657305</v>
+        <v>55676.913564215502</v>
       </c>
       <c r="B201">
-        <v>322164.13276203198</v>
+        <v>362347.67592687201</v>
       </c>
       <c r="C201">
-        <v>8416</v>
+        <v>8371</v>
       </c>
       <c r="D201">
         <v>310285</v>
@@ -3247,13 +3247,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>86427.040194520407</v>
+        <v>78111.332381044806</v>
       </c>
       <c r="B202">
-        <v>578537.21092956199</v>
+        <v>515847.59353280102</v>
       </c>
       <c r="C202">
-        <v>14742</v>
+        <v>14762</v>
       </c>
       <c r="D202">
         <v>290140</v>
@@ -3261,13 +3261,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>33845.565824383899</v>
+        <v>32095.357567114901</v>
       </c>
       <c r="B203">
-        <v>246768.786913647</v>
+        <v>139639.76105747599</v>
       </c>
       <c r="C203">
-        <v>6697</v>
+        <v>6703</v>
       </c>
       <c r="D203">
         <v>220060</v>
@@ -3275,13 +3275,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>22606.857225276599</v>
+        <v>22830.110048450701</v>
       </c>
       <c r="B204">
-        <v>170718.110961267</v>
+        <v>158175.314502867</v>
       </c>
       <c r="C204">
-        <v>3355</v>
+        <v>3332</v>
       </c>
       <c r="D204">
         <v>170105</v>
@@ -3289,13 +3289,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>80027.552816306095</v>
+        <v>79973.124655220599</v>
       </c>
       <c r="B205">
-        <v>1005617.29315016</v>
+        <v>865256.50980297197</v>
       </c>
       <c r="C205">
-        <v>11906</v>
+        <v>11905</v>
       </c>
       <c r="D205">
         <v>240080</v>
@@ -3303,13 +3303,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>5721912.1472307397</v>
+        <v>5074243.5499964599</v>
       </c>
       <c r="B206">
-        <v>195695796.27738199</v>
+        <v>199271480.78675401</v>
       </c>
       <c r="C206">
-        <v>184940</v>
+        <v>181486</v>
       </c>
       <c r="D206">
         <v>330010</v>
@@ -3317,13 +3317,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>39129.388446039302</v>
+        <v>40378.023147941698</v>
       </c>
       <c r="B207">
-        <v>500646.64365502697</v>
+        <v>662753.303439521</v>
       </c>
       <c r="C207">
-        <v>11209</v>
+        <v>11113</v>
       </c>
       <c r="D207">
         <v>290150</v>
@@ -3331,13 +3331,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>305060.40125280799</v>
+        <v>343059.50295186101</v>
       </c>
       <c r="B208">
-        <v>3829103.6434301701</v>
+        <v>3342590.8666619901</v>
       </c>
       <c r="C208">
-        <v>9991</v>
+        <v>9829</v>
       </c>
       <c r="D208">
         <v>500085</v>
@@ -3345,13 +3345,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>11184.400574371801</v>
+        <v>11205.1888349522</v>
       </c>
       <c r="B209">
-        <v>55845.804446633098</v>
+        <v>58805.221821155603</v>
       </c>
       <c r="C209">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="D209">
         <v>520120</v>
@@ -3359,13 +3359,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>80997.4917775051</v>
+        <v>84716.159961421698</v>
       </c>
       <c r="B210">
-        <v>3325119.12388751</v>
+        <v>4192684.1738342098</v>
       </c>
       <c r="C210">
-        <v>6215</v>
+        <v>6120</v>
       </c>
       <c r="D210">
         <v>350230</v>
@@ -3373,13 +3373,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>46420.723947385399</v>
+        <v>55718.362445872401</v>
       </c>
       <c r="B211">
-        <v>587977.85770019505</v>
+        <v>534699.85736863001</v>
       </c>
       <c r="C211">
-        <v>3970</v>
+        <v>3941</v>
       </c>
       <c r="D211">
         <v>350240</v>
@@ -3387,13 +3387,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>270236.76796784298</v>
+        <v>284420.95541430498</v>
       </c>
       <c r="B212">
-        <v>5961715.53596377</v>
+        <v>4060757.6117189298</v>
       </c>
       <c r="C212">
-        <v>21338</v>
+        <v>21195</v>
       </c>
       <c r="D212">
         <v>520130</v>
@@ -3401,13 +3401,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>74431.574868230906</v>
+        <v>73853.852823265901</v>
       </c>
       <c r="B213">
-        <v>751651.95937264897</v>
+        <v>965092.22644136695</v>
       </c>
       <c r="C213">
-        <v>8055</v>
+        <v>8230</v>
       </c>
       <c r="D213">
         <v>420100</v>
@@ -3415,13 +3415,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>38149.198679193403</v>
+        <v>43985.474453515002</v>
       </c>
       <c r="B214">
-        <v>328383.078031365</v>
+        <v>429555.82682589802</v>
       </c>
       <c r="C214">
-        <v>3256</v>
+        <v>3259</v>
       </c>
       <c r="D214">
         <v>420110</v>
@@ -3429,13 +3429,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>124643.592037126</v>
+        <v>122410.962308345</v>
       </c>
       <c r="B215">
-        <v>407729.24481070199</v>
+        <v>811236.08821086795</v>
       </c>
       <c r="C215">
-        <v>18826</v>
+        <v>18351</v>
       </c>
       <c r="D215">
         <v>130010</v>
@@ -3443,13 +3443,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>124698.496107556</v>
+        <v>117238.623989311</v>
       </c>
       <c r="B216">
-        <v>1181360.7485986201</v>
+        <v>1088379.61078297</v>
       </c>
       <c r="C216">
-        <v>6228</v>
+        <v>6235</v>
       </c>
       <c r="D216">
         <v>430070</v>
@@ -3457,13 +3457,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>69106.324857807194</v>
+        <v>66762.327064638303</v>
       </c>
       <c r="B217">
-        <v>353550.05737956701</v>
+        <v>355752.71496636898</v>
       </c>
       <c r="C217">
-        <v>18970</v>
+        <v>18744</v>
       </c>
       <c r="D217">
         <v>290160</v>
@@ -3471,13 +3471,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>251776.47080342201</v>
+        <v>288950.22587010899</v>
       </c>
       <c r="B218">
-        <v>9173422.3399880007</v>
+        <v>8994953.9788751099</v>
       </c>
       <c r="C218">
-        <v>19414</v>
+        <v>19412</v>
       </c>
       <c r="D218">
         <v>410120</v>
@@ -3485,13 +3485,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>35793.797238660401</v>
+        <v>33388.144208175203</v>
       </c>
       <c r="B219">
-        <v>371408.68662696797</v>
+        <v>550567.52723406302</v>
       </c>
       <c r="C219">
-        <v>7200</v>
+        <v>7172</v>
       </c>
       <c r="D219">
         <v>230080</v>
@@ -3499,13 +3499,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>55877.637302398798</v>
+        <v>63716.684720712801</v>
       </c>
       <c r="B220">
-        <v>72578.956416092304</v>
+        <v>143273.292031844</v>
       </c>
       <c r="C220">
-        <v>3097</v>
+        <v>3090</v>
       </c>
       <c r="D220">
         <v>220080</v>
@@ -3513,13 +3513,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>70627.849520384494</v>
+        <v>78787.955540446303</v>
       </c>
       <c r="B221">
-        <v>815273.04569139902</v>
+        <v>1531402.7324085201</v>
       </c>
       <c r="C221">
-        <v>12216</v>
+        <v>12206</v>
       </c>
       <c r="D221">
         <v>290170</v>
@@ -3527,13 +3527,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>87201.057165695602</v>
+        <v>104723.190658038</v>
       </c>
       <c r="B222">
-        <v>758246.71989760105</v>
+        <v>657120.73693611601</v>
       </c>
       <c r="C222">
-        <v>11534</v>
+        <v>11507</v>
       </c>
       <c r="D222">
         <v>310290</v>
@@ -3541,13 +3541,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>398974.54033743101</v>
+        <v>385110.64163266099</v>
       </c>
       <c r="B223">
-        <v>2240521.5456021102</v>
+        <v>2069549.6190124601</v>
       </c>
       <c r="C223">
-        <v>8012</v>
+        <v>7906</v>
       </c>
       <c r="D223">
         <v>420120</v>
@@ -3555,13 +3555,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>89797.896209322294</v>
+        <v>93018.744076798306</v>
       </c>
       <c r="B224">
-        <v>5741345.8295256803</v>
+        <v>3226282.7408805899</v>
       </c>
       <c r="C224">
-        <v>9711</v>
+        <v>9738</v>
       </c>
       <c r="D224">
         <v>310300</v>
@@ -3569,13 +3569,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>41611.165589609001</v>
+        <v>38664.457166180298</v>
       </c>
       <c r="B225">
-        <v>349334.35065045703</v>
+        <v>116054.15677915901</v>
       </c>
       <c r="C225">
-        <v>12083</v>
+        <v>11973</v>
       </c>
       <c r="D225">
         <v>290180</v>
@@ -3583,13 +3583,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>102641.460790026</v>
+        <v>100443.218120775</v>
       </c>
       <c r="B226">
-        <v>983765.47817920602</v>
+        <v>1558442.4331443501</v>
       </c>
       <c r="C226">
-        <v>8612</v>
+        <v>8545</v>
       </c>
       <c r="D226">
         <v>500090</v>
@@ -3597,13 +3597,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>32672.415116295699</v>
+        <v>32132.5016522527</v>
       </c>
       <c r="B227">
-        <v>258289.71795511901</v>
+        <v>352944.288181988</v>
       </c>
       <c r="C227">
-        <v>7188</v>
+        <v>7172</v>
       </c>
       <c r="D227">
         <v>240090</v>
@@ -3611,13 +3611,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>117222.270625285</v>
+        <v>111386.668008177</v>
       </c>
       <c r="B228">
-        <v>515714.32666739001</v>
+        <v>384861.94113528897</v>
       </c>
       <c r="C228">
-        <v>7573</v>
+        <v>7567</v>
       </c>
       <c r="D228">
         <v>410130</v>
@@ -3625,13 +3625,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>315537.43648543902</v>
+        <v>295454.53792355797</v>
       </c>
       <c r="B229">
-        <v>4182585.4424180998</v>
+        <v>3797556.8597476799</v>
       </c>
       <c r="C229">
-        <v>13274</v>
+        <v>13263</v>
       </c>
       <c r="D229">
         <v>430080</v>
@@ -3639,13 +3639,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>13434.6419977061</v>
+        <v>13496.4997197908</v>
       </c>
       <c r="B230">
-        <v>281148.45117326902</v>
+        <v>174480.23095935499</v>
       </c>
       <c r="C230">
-        <v>1685</v>
+        <v>1692</v>
       </c>
       <c r="D230">
         <v>310310</v>
@@ -3653,13 +3653,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>9386814.0342584606</v>
+        <v>9452860.4215289503</v>
       </c>
       <c r="B231">
-        <v>175522119.90042299</v>
+        <v>173412818.16559401</v>
       </c>
       <c r="C231">
-        <v>361991</v>
+        <v>357402</v>
       </c>
       <c r="D231">
         <v>520110</v>
@@ -3667,13 +3667,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>41469.390072331902</v>
+        <v>36786.4035649207</v>
       </c>
       <c r="B232">
-        <v>176672.116384227</v>
+        <v>223693.861936011</v>
       </c>
       <c r="C232">
-        <v>9531</v>
+        <v>9456</v>
       </c>
       <c r="D232">
         <v>220070</v>
@@ -3681,13 +3681,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>47215.013111276698</v>
+        <v>42859.365619500102</v>
       </c>
       <c r="B233">
-        <v>618492.38546586002</v>
+        <v>713943.95744318597</v>
       </c>
       <c r="C233">
-        <v>8174</v>
+        <v>8081</v>
       </c>
       <c r="D233">
         <v>250077</v>
@@ -3695,13 +3695,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>637716.15425177698</v>
+        <v>605176.46271173796</v>
       </c>
       <c r="B234">
-        <v>21700523.220772501</v>
+        <v>22651948.0781941</v>
       </c>
       <c r="C234">
-        <v>36184</v>
+        <v>36151</v>
       </c>
       <c r="D234">
         <v>350250</v>
@@ -3709,13 +3709,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>59270.267427036597</v>
+        <v>51170.447153398403</v>
       </c>
       <c r="B235">
-        <v>545663.21283799002</v>
+        <v>474904.286985579</v>
       </c>
       <c r="C235">
-        <v>4432</v>
+        <v>4468</v>
       </c>
       <c r="D235">
         <v>350260</v>
@@ -3723,13 +3723,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>8614075.2188956998</v>
+        <v>7724311.3985807402</v>
       </c>
       <c r="B236">
-        <v>227775842.78561801</v>
+        <v>198085502.299932</v>
       </c>
       <c r="C236">
-        <v>511323</v>
+        <v>500619</v>
       </c>
       <c r="D236">
         <v>520140</v>
@@ -3737,13 +3737,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>49387.464670112102</v>
+        <v>44467.572681022102</v>
       </c>
       <c r="B237">
-        <v>554134.950768688</v>
+        <v>1760723.8592318201</v>
       </c>
       <c r="C237">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="D237">
         <v>520145</v>
@@ -3751,13 +3751,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>53599.563938487903</v>
+        <v>47192.874041471499</v>
       </c>
       <c r="B238">
-        <v>562672.74012224795</v>
+        <v>213544.54400036699</v>
       </c>
       <c r="C238">
-        <v>4561</v>
+        <v>4504</v>
       </c>
       <c r="D238">
         <v>170110</v>
@@ -3765,13 +3765,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>558833.930530507</v>
+        <v>633777.10356687498</v>
       </c>
       <c r="B239">
-        <v>12047908.935092</v>
+        <v>13642838.102995601</v>
       </c>
       <c r="C239">
-        <v>24078</v>
+        <v>23733</v>
       </c>
       <c r="D239">
         <v>500100</v>
@@ -3779,13 +3779,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>105208.742458821</v>
+        <v>107326.777894618</v>
       </c>
       <c r="B240">
-        <v>1654176.8493053501</v>
+        <v>1293510.98898286</v>
       </c>
       <c r="C240">
-        <v>10882</v>
+        <v>10736</v>
       </c>
       <c r="D240">
         <v>330015</v>
@@ -3793,13 +3793,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>53743.591593764402</v>
+        <v>55404.412227585402</v>
       </c>
       <c r="B241">
-        <v>562707.49312455405</v>
+        <v>721331.36902926501</v>
       </c>
       <c r="C241">
-        <v>7920</v>
+        <v>7916</v>
       </c>
       <c r="D241">
         <v>320050</v>
@@ -3807,13 +3807,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>88432.279543482597</v>
+        <v>85093.795073694098</v>
       </c>
       <c r="B242">
-        <v>984722.44686762302</v>
+        <v>848174.61631600803</v>
       </c>
       <c r="C242">
-        <v>9249</v>
+        <v>9094</v>
       </c>
       <c r="D242">
         <v>510080</v>
@@ -3821,13 +3821,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>565636.65167282103</v>
+        <v>520555.52141248301</v>
       </c>
       <c r="B243">
-        <v>3992385.1253561298</v>
+        <v>6748763.4588535996</v>
       </c>
       <c r="C243">
-        <v>25349</v>
+        <v>25491</v>
       </c>
       <c r="D243">
         <v>350270</v>
@@ -3835,13 +3835,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>64888.756427581597</v>
+        <v>58896.963414498699</v>
       </c>
       <c r="B244">
-        <v>573098.00017069897</v>
+        <v>216819.014027322</v>
       </c>
       <c r="C244">
-        <v>17712</v>
+        <v>17474</v>
       </c>
       <c r="D244">
         <v>210083</v>
@@ -3849,13 +3849,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>285926.38950954098</v>
+        <v>230386.13198012899</v>
       </c>
       <c r="B245">
-        <v>2411647.7611234901</v>
+        <v>2752614.4789134902</v>
       </c>
       <c r="C245">
-        <v>10211</v>
+        <v>10099</v>
       </c>
       <c r="D245">
         <v>420125</v>
@@ -3863,13 +3863,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>389342.856500044</v>
+        <v>430549.52072369499</v>
       </c>
       <c r="B246">
-        <v>5704022.4967912398</v>
+        <v>5056046.6392986104</v>
       </c>
       <c r="C246">
-        <v>36120</v>
+        <v>36049</v>
       </c>
       <c r="D246">
         <v>240100</v>
@@ -3877,13 +3877,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>74172.593014223297</v>
+        <v>71674.719637259506</v>
       </c>
       <c r="B247">
-        <v>451169.159999108</v>
+        <v>315154.72834524099</v>
       </c>
       <c r="C247">
-        <v>19063</v>
+        <v>18976</v>
       </c>
       <c r="D247">
         <v>290190</v>
@@ -3891,13 +3891,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>134225.120252266</v>
+        <v>125124.26497334</v>
       </c>
       <c r="B248">
-        <v>6258974.1926582996</v>
+        <v>4920145.7506484799</v>
       </c>
       <c r="C248">
-        <v>4043</v>
+        <v>4008</v>
       </c>
       <c r="D248">
         <v>520150</v>
@@ -3905,13 +3905,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>39196.951848341603</v>
+        <v>40439.028582552397</v>
       </c>
       <c r="B249">
-        <v>117368.725776468</v>
+        <v>148971.660947041</v>
       </c>
       <c r="C249">
-        <v>7780</v>
+        <v>7795</v>
       </c>
       <c r="D249">
         <v>290195</v>
@@ -3919,13 +3919,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>2062193.7966613199</v>
+        <v>1997771.07680983</v>
       </c>
       <c r="B250">
-        <v>41829863.112734199</v>
+        <v>39214143.242314301</v>
       </c>
       <c r="C250">
-        <v>129265</v>
+        <v>128058</v>
       </c>
       <c r="D250">
         <v>410140</v>
@@ -3933,13 +3933,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>58656.110206042402</v>
+        <v>52688.463516901102</v>
       </c>
       <c r="B251">
-        <v>280530.07203232602</v>
+        <v>204311.55163680401</v>
       </c>
       <c r="C251">
-        <v>14483</v>
+        <v>14397</v>
       </c>
       <c r="D251">
         <v>230090</v>
@@ -3947,13 +3947,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>142417.47176769</v>
+        <v>125586.248957566</v>
       </c>
       <c r="B252">
-        <v>934390.93385295104</v>
+        <v>640219.10319494002</v>
       </c>
       <c r="C252">
-        <v>20258</v>
+        <v>19860</v>
       </c>
       <c r="D252">
         <v>130014</v>
@@ -3961,13 +3961,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>140463.354402186</v>
+        <v>148594.321092092</v>
       </c>
       <c r="B253">
-        <v>1250318.2313864599</v>
+        <v>1869377.7515570601</v>
       </c>
       <c r="C253">
-        <v>21170</v>
+        <v>21023</v>
       </c>
       <c r="D253">
         <v>280020</v>
@@ -3975,13 +3975,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>564096.29845790297</v>
+        <v>532157.19704300398</v>
       </c>
       <c r="B254">
-        <v>7609094.20077461</v>
+        <v>7662806.5796437496</v>
       </c>
       <c r="C254">
-        <v>46998</v>
+        <v>46830</v>
       </c>
       <c r="D254">
         <v>500110</v>
@@ -3989,13 +3989,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>1218168.94389458</v>
+        <v>1232236.7463658</v>
       </c>
       <c r="B255">
-        <v>47121671.925756201</v>
+        <v>34756871.284191102</v>
       </c>
       <c r="C255">
-        <v>76967</v>
+        <v>76186</v>
       </c>
       <c r="D255">
         <v>230100</v>
@@ -4003,13 +4003,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>73213.798189531793</v>
+        <v>72121.835326873595</v>
       </c>
       <c r="B256">
-        <v>648379.44047839195</v>
+        <v>638636.99059554096</v>
       </c>
       <c r="C256">
-        <v>4273</v>
+        <v>4270</v>
       </c>
       <c r="D256">
         <v>420127</v>
@@ -4017,13 +4017,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>10991707.4332138</v>
+        <v>11197713.5307364</v>
       </c>
       <c r="B257">
-        <v>509734370.09754503</v>
+        <v>490585873.15757501</v>
       </c>
       <c r="C257">
-        <v>623766</v>
+        <v>614577</v>
       </c>
       <c r="D257">
         <v>280030</v>
@@ -4031,13 +4031,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>799926.74036991503</v>
+        <v>787850.85384393402</v>
       </c>
       <c r="B258">
-        <v>11920431.0311644</v>
+        <v>8808333.0662014503</v>
       </c>
       <c r="C258">
-        <v>72248</v>
+        <v>71749</v>
       </c>
       <c r="D258">
         <v>230110</v>
@@ -4045,13 +4045,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>59908.044434012802</v>
+        <v>62046.364004001502</v>
       </c>
       <c r="B259">
-        <v>671663.72231808503</v>
+        <v>1749634.2600958</v>
       </c>
       <c r="C259">
-        <v>14158</v>
+        <v>14232</v>
       </c>
       <c r="D259">
         <v>290200</v>
@@ -4059,13 +4059,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>250677.65245219899</v>
+        <v>236686.47177980901</v>
       </c>
       <c r="B260">
-        <v>1223703.28008781</v>
+        <v>2480997.6200642199</v>
       </c>
       <c r="C260">
-        <v>56023</v>
+        <v>55655</v>
       </c>
       <c r="D260">
         <v>290210</v>
@@ -4073,13 +4073,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>13851.682186567299</v>
+        <v>13952.668131561801</v>
       </c>
       <c r="B261">
-        <v>50711.800760090096</v>
+        <v>79506.638455563094</v>
       </c>
       <c r="C261">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="D261">
         <v>310330</v>
@@ -4087,13 +4087,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>119138.365734352</v>
+        <v>110202.123411101</v>
       </c>
       <c r="B262">
-        <v>1118433.3891366699</v>
+        <v>1111472.37106973</v>
       </c>
       <c r="C262">
-        <v>26062</v>
+        <v>25988</v>
       </c>
       <c r="D262">
         <v>230120</v>
@@ -4101,13 +4101,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>3682413.12674759</v>
+        <v>4147235.7929596398</v>
       </c>
       <c r="B263">
-        <v>97727004.341033697</v>
+        <v>81058289.763152704</v>
       </c>
       <c r="C263">
-        <v>93325</v>
+        <v>91562</v>
       </c>
       <c r="D263">
         <v>320060</v>
@@ -4115,13 +4115,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>145828.935608431</v>
+        <v>136635.401448833</v>
       </c>
       <c r="B264">
-        <v>1871564.29684304</v>
+        <v>2193723.6926521598</v>
       </c>
       <c r="C264">
-        <v>19426</v>
+        <v>19267</v>
       </c>
       <c r="D264">
         <v>520170</v>
@@ -4129,13 +4129,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>68495.027623391506</v>
+        <v>63238.183237811798</v>
       </c>
       <c r="B265">
-        <v>2161525.8905056901</v>
+        <v>2038427.17009382</v>
       </c>
       <c r="C265">
-        <v>9278</v>
+        <v>9108</v>
       </c>
       <c r="D265">
         <v>520180</v>
@@ -4143,13 +4143,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>39310.486750148099</v>
+        <v>39571.856719865304</v>
       </c>
       <c r="B266">
-        <v>318942.46278885799</v>
+        <v>266218.61898034799</v>
       </c>
       <c r="C266">
-        <v>5933</v>
+        <v>5958</v>
       </c>
       <c r="D266">
         <v>170130</v>
@@ -4157,13 +4157,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>50836.287249317902</v>
+        <v>46676.935705899901</v>
       </c>
       <c r="B267">
-        <v>578249.20600739901</v>
+        <v>571282.17444488604</v>
       </c>
       <c r="C267">
-        <v>6791</v>
+        <v>6716</v>
       </c>
       <c r="D267">
         <v>170190</v>
@@ -4171,13 +4171,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>41355.074704753002</v>
+        <v>41055.737025515104</v>
       </c>
       <c r="B268">
-        <v>1189694.0915705501</v>
+        <v>810071.61341966002</v>
       </c>
       <c r="C268">
-        <v>3108</v>
+        <v>3133</v>
       </c>
       <c r="D268">
         <v>510100</v>
@@ -4185,13 +4185,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>10499.7366066214</v>
+        <v>11097.862485071</v>
       </c>
       <c r="B269">
-        <v>230842.426396033</v>
+        <v>193891.07402873601</v>
       </c>
       <c r="C269">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="D269">
         <v>510120</v>
@@ -4199,13 +4199,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>45858.056812326402</v>
+        <v>44801.411202428899</v>
       </c>
       <c r="B270">
-        <v>550866.65520195896</v>
+        <v>476669.93663233402</v>
       </c>
       <c r="C270">
-        <v>14843</v>
+        <v>14658</v>
       </c>
       <c r="D270">
         <v>210087</v>
@@ -4213,13 +4213,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>39075.778266881098</v>
+        <v>40054.488770780998</v>
       </c>
       <c r="B271">
-        <v>359089.17969542998</v>
+        <v>789921.30285355402</v>
       </c>
       <c r="C271">
-        <v>5448</v>
+        <v>5379</v>
       </c>
       <c r="D271">
         <v>170215</v>
@@ -4227,13 +4227,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>75494.528677934693</v>
+        <v>72494.890377501099</v>
       </c>
       <c r="B272">
-        <v>1059453.9094819699</v>
+        <v>1768124.29161023</v>
       </c>
       <c r="C272">
-        <v>7795</v>
+        <v>7772</v>
       </c>
       <c r="D272">
         <v>520215</v>
@@ -4241,13 +4241,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>2441245.75754011</v>
+        <v>2246305.5586629901</v>
       </c>
       <c r="B273">
-        <v>31458396.072051</v>
+        <v>28868759.687231101</v>
       </c>
       <c r="C273">
-        <v>115632</v>
+        <v>114970</v>
       </c>
       <c r="D273">
         <v>310350</v>
@@ -4255,13 +4255,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>224929.14533792401</v>
+        <v>227720.29743361601</v>
       </c>
       <c r="B274">
-        <v>3998927.1077990499</v>
+        <v>1790650.7241475801</v>
       </c>
       <c r="C274">
-        <v>33963</v>
+        <v>33524</v>
       </c>
       <c r="D274">
         <v>170220</v>
@@ -4269,13 +4269,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>102046.38662108099</v>
+        <v>96710.485382593397</v>
       </c>
       <c r="B275">
-        <v>5777244.3026776602</v>
+        <v>1355147.71708507</v>
       </c>
       <c r="C275">
-        <v>8822</v>
+        <v>8868</v>
       </c>
       <c r="D275">
         <v>170200</v>
@@ -4283,13 +4283,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>2241305.12933646</v>
+        <v>2296903.5211821399</v>
       </c>
       <c r="B276">
-        <v>41928289.587590799</v>
+        <v>38369315.284365602</v>
       </c>
       <c r="C276">
-        <v>167176</v>
+        <v>164093</v>
       </c>
       <c r="D276">
         <v>170210</v>
@@ -4297,13 +4297,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>159567.07256566701</v>
+        <v>150364.04593289699</v>
       </c>
       <c r="B277">
-        <v>367015.75580056501</v>
+        <v>652739.97555563506</v>
       </c>
       <c r="C277">
-        <v>44800</v>
+        <v>44317</v>
       </c>
       <c r="D277">
         <v>210090</v>
@@ -4311,13 +4311,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>363028.37891826301</v>
+        <v>371343.03281314799</v>
       </c>
       <c r="B278">
-        <v>2722240.2656183001</v>
+        <v>920707.40338002902</v>
       </c>
       <c r="C278">
-        <v>11209</v>
+        <v>11014</v>
       </c>
       <c r="D278">
         <v>500124</v>
@@ -4325,13 +4325,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>51371.5982476032</v>
+        <v>50621.2709516705</v>
       </c>
       <c r="B279">
-        <v>1392073.5973896401</v>
+        <v>947813.448683872</v>
       </c>
       <c r="C279">
-        <v>11237</v>
+        <v>11157</v>
       </c>
       <c r="D279">
         <v>290220</v>
@@ -4339,13 +4339,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>84945.915332033604</v>
+        <v>82157.525270122496</v>
       </c>
       <c r="B280">
-        <v>2569772.3001665301</v>
+        <v>3140117.9730683402</v>
       </c>
       <c r="C280">
-        <v>3769</v>
+        <v>3778</v>
       </c>
       <c r="D280">
         <v>430085</v>
@@ -4353,13 +4353,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>131455.30107638901</v>
+        <v>127829.330369225</v>
       </c>
       <c r="B281">
-        <v>688235.49509222596</v>
+        <v>693692.60910894698</v>
       </c>
       <c r="C281">
-        <v>31944</v>
+        <v>31867</v>
       </c>
       <c r="D281">
         <v>210095</v>
@@ -4367,13 +4367,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>81667.579919926007</v>
+        <v>91862.428475266497</v>
       </c>
       <c r="B282">
-        <v>3671643.4785591201</v>
+        <v>3433052.2320991498</v>
       </c>
       <c r="C282">
-        <v>5451</v>
+        <v>5416</v>
       </c>
       <c r="D282">
         <v>350300</v>
@@ -4381,13 +4381,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>60168.259689505801</v>
+        <v>56785.800029898099</v>
       </c>
       <c r="B283">
-        <v>3112276.46239255</v>
+        <v>2557783.3203959302</v>
       </c>
       <c r="C283">
-        <v>6343</v>
+        <v>6334</v>
       </c>
       <c r="D283">
         <v>350310</v>
@@ -4395,13 +4395,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>30136.462730447001</v>
+        <v>39719.399622849</v>
       </c>
       <c r="B284">
-        <v>192252.28457211101</v>
+        <v>98644.503470159398</v>
       </c>
       <c r="C284">
-        <v>2884</v>
+        <v>2888</v>
       </c>
       <c r="D284">
         <v>310360</v>
@@ -4409,13 +4409,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>17456.544412977099</v>
+        <v>17964.734509554</v>
       </c>
       <c r="B285">
-        <v>387404.19958378602</v>
+        <v>437440.84131084202</v>
       </c>
       <c r="C285">
-        <v>2532</v>
+        <v>2541</v>
       </c>
       <c r="D285">
         <v>350315</v>
@@ -4423,13 +4423,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>2535161.3911650502</v>
+        <v>2365705.6018114602</v>
       </c>
       <c r="B286">
-        <v>35759979.8164507</v>
+        <v>31963738.621173099</v>
       </c>
       <c r="C286">
-        <v>229329</v>
+        <v>227640</v>
       </c>
       <c r="D286">
         <v>270030</v>
@@ -4437,13 +4437,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>64112.265276632403</v>
+        <v>62381.690229989901</v>
       </c>
       <c r="B287">
-        <v>500357.91808999499</v>
+        <v>837612.22811836598</v>
       </c>
       <c r="C287">
-        <v>6821</v>
+        <v>6844</v>
       </c>
       <c r="D287">
         <v>170230</v>
@@ -4451,13 +4451,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>46968.4486299989</v>
+        <v>46651.363893940201</v>
       </c>
       <c r="B288">
-        <v>369403.869428462</v>
+        <v>290556.26110310399</v>
       </c>
       <c r="C288">
-        <v>8478</v>
+        <v>8454</v>
       </c>
       <c r="D288">
         <v>310370</v>
@@ -4465,13 +4465,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>2949184.5125394999</v>
+        <v>3043078.4497608901</v>
       </c>
       <c r="B289">
-        <v>39119952.875433303</v>
+        <v>37041929.005085602</v>
       </c>
       <c r="C289">
-        <v>113833</v>
+        <v>112198</v>
       </c>
       <c r="D289">
         <v>410150</v>
@@ -4479,13 +4479,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>579122.266642562</v>
+        <v>487783.535912583</v>
       </c>
       <c r="B290">
-        <v>4119115.4073484801</v>
+        <v>5889757.6264190404</v>
       </c>
       <c r="C290">
-        <v>6593</v>
+        <v>6527</v>
       </c>
       <c r="D290">
         <v>310375</v>
@@ -4493,13 +4493,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>699213.370846226</v>
+        <v>697806.65972116205</v>
       </c>
       <c r="B291">
-        <v>5983768.6129756803</v>
+        <v>4785316.31899794</v>
       </c>
       <c r="C291">
-        <v>27362</v>
+        <v>27170</v>
       </c>
       <c r="D291">
         <v>410160</v>
@@ -4507,13 +4507,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>249809.12240380101</v>
+        <v>241238.06019102799</v>
       </c>
       <c r="B292">
-        <v>3325163.50422813</v>
+        <v>3330134.2134250202</v>
       </c>
       <c r="C292">
-        <v>15926</v>
+        <v>15803</v>
       </c>
       <c r="D292">
         <v>510125</v>
@@ -4521,13 +4521,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>69220.039015930102</v>
+        <v>70746.292532882202</v>
       </c>
       <c r="B293">
-        <v>195794.25777998599</v>
+        <v>140444.92061561299</v>
       </c>
       <c r="C293">
-        <v>2870</v>
+        <v>2866</v>
       </c>
       <c r="D293">
         <v>310380</v>
@@ -4535,13 +4535,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>66223.384618779994</v>
+        <v>74012.5447594078</v>
       </c>
       <c r="B294">
-        <v>296071.52818615001</v>
+        <v>291893.04561484698</v>
       </c>
       <c r="C294">
-        <v>3469</v>
+        <v>3513</v>
       </c>
       <c r="D294">
         <v>410165</v>
@@ -4549,13 +4549,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>1205362.20579053</v>
+        <v>809511.33611932199</v>
       </c>
       <c r="B295">
-        <v>11993035.421769699</v>
+        <v>9564619.7265500408</v>
       </c>
       <c r="C295">
-        <v>31030</v>
+        <v>29593</v>
       </c>
       <c r="D295">
         <v>420130</v>
@@ -4563,13 +4563,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>57611.154320645903</v>
+        <v>57309.319294323999</v>
       </c>
       <c r="B296">
-        <v>323450.17851206602</v>
+        <v>346900.53217090003</v>
       </c>
       <c r="C296">
-        <v>13258</v>
+        <v>13157</v>
       </c>
       <c r="D296">
         <v>250090</v>
@@ -4577,13 +4577,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>1114088.55945749</v>
+        <v>1065605.97306099</v>
       </c>
       <c r="B297">
-        <v>22594762.316650499</v>
+        <v>22636355.910048701</v>
       </c>
       <c r="C297">
-        <v>65090</v>
+        <v>64405</v>
       </c>
       <c r="D297">
         <v>420140</v>
@@ -4591,13 +4591,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>5855025.1465426804</v>
+        <v>5991880.3871421898</v>
       </c>
       <c r="B298">
-        <v>159509329.740284</v>
+        <v>161313780.758634</v>
       </c>
       <c r="C298">
-        <v>224304</v>
+        <v>222036</v>
       </c>
       <c r="D298">
         <v>350320</v>
@@ -4605,13 +4605,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>3224656.7238409398</v>
+        <v>3350420.0058492702</v>
       </c>
       <c r="B299">
-        <v>93313857.689586803</v>
+        <v>85169323.5648662</v>
       </c>
       <c r="C299">
-        <v>127661</v>
+        <v>126391</v>
       </c>
       <c r="D299">
         <v>350330</v>
@@ -4619,13 +4619,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>42559.097333992802</v>
+        <v>38034.286190100604</v>
       </c>
       <c r="B300">
-        <v>232340.38618941401</v>
+        <v>237700.16077124499</v>
       </c>
       <c r="C300">
-        <v>10750</v>
+        <v>10723</v>
       </c>
       <c r="D300">
         <v>230125</v>
@@ -4633,13 +4633,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>146913.681969978</v>
+        <v>134751.632516176</v>
       </c>
       <c r="B301">
-        <v>1051730.2033521901</v>
+        <v>1941832.7368048399</v>
       </c>
       <c r="C301">
-        <v>29096</v>
+        <v>28986</v>
       </c>
       <c r="D301">
         <v>210100</v>
@@ -4647,13 +4647,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>112062.074372135</v>
+        <v>97339.229912515497</v>
       </c>
       <c r="B302">
-        <v>1238835.43136073</v>
+        <v>1049341.6139088301</v>
       </c>
       <c r="C302">
-        <v>5249</v>
+        <v>5195</v>
       </c>
       <c r="D302">
         <v>430087</v>
@@ -4661,13 +4661,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>114477.92428834</v>
+        <v>96583.641462391795</v>
       </c>
       <c r="B303">
-        <v>1171646.01882523</v>
+        <v>1481830.19401541</v>
       </c>
       <c r="C303">
-        <v>21230</v>
+        <v>21170</v>
       </c>
       <c r="D303">
         <v>230130</v>
@@ -4675,13 +4675,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>574503.06890292</v>
+        <v>542014.63372377295</v>
       </c>
       <c r="B304">
-        <v>6309726.3178908704</v>
+        <v>6254019.4304537699</v>
       </c>
       <c r="C304">
-        <v>82298</v>
+        <v>80577</v>
       </c>
       <c r="D304">
         <v>260110</v>
@@ -4689,13 +4689,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>1522523.29508965</v>
+        <v>1643459.5438089201</v>
       </c>
       <c r="B305">
-        <v>52552279.217013903</v>
+        <v>63137577.4722104</v>
       </c>
       <c r="C305">
-        <v>120948</v>
+        <v>118964</v>
       </c>
       <c r="D305">
         <v>330020</v>
@@ -4703,13 +4703,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
-        <v>94751.507303505903</v>
+        <v>92570.595745180501</v>
       </c>
       <c r="B306">
-        <v>641282.99090888503</v>
+        <v>579689.13183699094</v>
       </c>
       <c r="C306">
-        <v>19855</v>
+        <v>19653</v>
       </c>
       <c r="D306">
         <v>250100</v>
@@ -4717,13 +4717,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
-        <v>314051.84718168998</v>
+        <v>321092.99347953801</v>
       </c>
       <c r="B307">
-        <v>2344297.3389552301</v>
+        <v>1678649.2618649399</v>
       </c>
       <c r="C307">
-        <v>13971</v>
+        <v>13926</v>
       </c>
       <c r="D307">
         <v>410170</v>
@@ -4731,13 +4731,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
-        <v>67661.867133020904</v>
+        <v>58862.188518796102</v>
       </c>
       <c r="B308">
-        <v>224005.57040362101</v>
+        <v>301589.74946946301</v>
       </c>
       <c r="C308">
-        <v>11779</v>
+        <v>11822</v>
       </c>
       <c r="D308">
         <v>290225</v>
@@ -4745,13 +4745,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
-        <v>447173.28998250398</v>
+        <v>699677.671785924</v>
       </c>
       <c r="B309">
-        <v>1909768.98030897</v>
+        <v>1559152.25477141</v>
       </c>
       <c r="C309">
-        <v>6663</v>
+        <v>6687</v>
       </c>
       <c r="D309">
         <v>430090</v>
@@ -4759,13 +4759,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
-        <v>60801.879130230998</v>
+        <v>51885.891446738802</v>
       </c>
       <c r="B310">
-        <v>293096.565794789</v>
+        <v>115244.213771911</v>
       </c>
       <c r="C310">
-        <v>11419</v>
+        <v>11482</v>
       </c>
       <c r="D310">
         <v>230140</v>
@@ -4773,13 +4773,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>43666.036807794597</v>
+        <v>42585.425107689298</v>
       </c>
       <c r="B311">
-        <v>230520.63683541701</v>
+        <v>176300.33574501501</v>
       </c>
       <c r="C311">
-        <v>9104</v>
+        <v>9146</v>
       </c>
       <c r="D311">
         <v>290230</v>
@@ -4787,13 +4787,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
-        <v>6298415.6745765097</v>
+        <v>5440316.7751780096</v>
       </c>
       <c r="B312">
-        <v>94476180.3845523</v>
+        <v>95479168.324051395</v>
       </c>
       <c r="C312">
-        <v>131356</v>
+        <v>129209</v>
       </c>
       <c r="D312">
         <v>410180</v>
@@ -4801,13 +4801,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>75513.537224272397</v>
+        <v>78248.591028881099</v>
       </c>
       <c r="B313">
-        <v>462739.30644443998</v>
+        <v>258187.649324486</v>
       </c>
       <c r="C313">
-        <v>10684</v>
+        <v>10796</v>
       </c>
       <c r="D313">
         <v>280040</v>
@@ -4815,13 +4815,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314">
-        <v>3508979.6257658699</v>
+        <v>3387936.7498468799</v>
       </c>
       <c r="B314">
-        <v>44514042.080297202</v>
+        <v>41134015.737592697</v>
       </c>
       <c r="C314">
-        <v>101136</v>
+        <v>99986</v>
       </c>
       <c r="D314">
         <v>310400</v>
@@ -4829,13 +4829,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
-        <v>92844.622133163095</v>
+        <v>92526.539004904102</v>
       </c>
       <c r="B315">
-        <v>336177.80351577798</v>
+        <v>240089.745488933</v>
       </c>
       <c r="C315">
-        <v>17186</v>
+        <v>17252</v>
       </c>
       <c r="D315">
         <v>250080</v>
@@ -4843,13 +4843,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316">
-        <v>1116746.2224560699</v>
+        <v>1092969.1499964001</v>
       </c>
       <c r="B316">
-        <v>19849567.643465299</v>
+        <v>18238945.862078801</v>
       </c>
       <c r="C316">
-        <v>19636</v>
+        <v>19144</v>
       </c>
       <c r="D316">
         <v>350275</v>
@@ -4857,13 +4857,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317">
-        <v>264132.84032201802</v>
+        <v>346038.301217367</v>
       </c>
       <c r="B317">
-        <v>8071877.3178014001</v>
+        <v>6135175.91351688</v>
       </c>
       <c r="C317">
-        <v>12402</v>
+        <v>12351</v>
       </c>
       <c r="D317">
         <v>290205</v>
@@ -4871,13 +4871,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
-        <v>4542769.8705361104</v>
+        <v>4848637.1383672804</v>
       </c>
       <c r="B318">
-        <v>116101765.797885</v>
+        <v>117492546.538266</v>
       </c>
       <c r="C318">
-        <v>191662</v>
+        <v>190536</v>
       </c>
       <c r="D318">
         <v>350280</v>
@@ -4885,13 +4885,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
-        <v>27538.7893703849</v>
+        <v>27123.399530627699</v>
       </c>
       <c r="B319">
-        <v>136188.07105519899</v>
+        <v>210119.22500300099</v>
       </c>
       <c r="C319">
-        <v>2344</v>
+        <v>2335</v>
       </c>
       <c r="D319">
         <v>310320</v>
@@ -4899,13 +4899,13 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320">
-        <v>84554.201183721394</v>
+        <v>76597.313726377499</v>
       </c>
       <c r="B320">
-        <v>708837.07125564304</v>
+        <v>418660.90015495202</v>
       </c>
       <c r="C320">
-        <v>19579</v>
+        <v>19333</v>
       </c>
       <c r="D320">
         <v>260105</v>
@@ -4913,13 +4913,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321">
-        <v>383152.63058497699</v>
+        <v>372344.648618426</v>
       </c>
       <c r="B321">
-        <v>21330548.3882518</v>
+        <v>21986663.869582001</v>
       </c>
       <c r="C321">
-        <v>30713</v>
+        <v>30088</v>
       </c>
       <c r="D321">
         <v>350290</v>
@@ -4927,13 +4927,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322">
-        <v>34460.232782475097</v>
+        <v>34033.383960981599</v>
       </c>
       <c r="B322">
-        <v>333446.49047806102</v>
+        <v>254287.766116018</v>
       </c>
       <c r="C322">
-        <v>3800</v>
+        <v>3823</v>
       </c>
       <c r="D322">
         <v>520160</v>
@@ -4941,13 +4941,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>251139.055259799</v>
+        <v>225612.40699909499</v>
       </c>
       <c r="B323">
-        <v>3010874.4846624299</v>
+        <v>2813739.53628963</v>
       </c>
       <c r="C323">
-        <v>37220</v>
+        <v>37169</v>
       </c>
       <c r="D323">
         <v>310340</v>
@@ -4955,13 +4955,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>175969.92990904799</v>
+        <v>166719.30127417701</v>
       </c>
       <c r="B324">
-        <v>972040.82139897405</v>
+        <v>888627.583345533</v>
       </c>
       <c r="C324">
-        <v>8645</v>
+        <v>8517</v>
       </c>
       <c r="D324">
         <v>310390</v>
@@ -4969,13 +4969,13 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325">
-        <v>163032.36198821801</v>
+        <v>184762.35428096401</v>
       </c>
       <c r="B325">
-        <v>979005.51943615405</v>
+        <v>1110628.40656033</v>
       </c>
       <c r="C325">
-        <v>10262</v>
+        <v>10146</v>
       </c>
       <c r="D325">
         <v>310410</v>
@@ -4983,13 +4983,13 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326">
-        <v>25543.8251705199</v>
+        <v>26231.493584817501</v>
       </c>
       <c r="B326">
-        <v>167058.08744359101</v>
+        <v>138582.470070821</v>
       </c>
       <c r="C326">
-        <v>1907</v>
+        <v>1925</v>
       </c>
       <c r="D326">
         <v>350335</v>
@@ -4997,13 +4997,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>967291.19270642695</v>
+        <v>1024254.7253983601</v>
       </c>
       <c r="B327">
-        <v>16164762.4246388</v>
+        <v>9954440.1229044292</v>
       </c>
       <c r="C327">
-        <v>38946</v>
+        <v>38630</v>
       </c>
       <c r="D327">
         <v>310420</v>
@@ -5011,13 +5011,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>644763.32051982603</v>
+        <v>620058.29543545598</v>
       </c>
       <c r="B328">
-        <v>15357351.678212799</v>
+        <v>12978454.833274201</v>
       </c>
       <c r="C328">
-        <v>72672</v>
+        <v>72102</v>
       </c>
       <c r="D328">
         <v>260120</v>
@@ -5025,13 +5025,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
-        <v>133231.32175898299</v>
+        <v>133862.28192176399</v>
       </c>
       <c r="B329">
-        <v>1680090.2615281099</v>
+        <v>1823747.4133444999</v>
       </c>
       <c r="C329">
-        <v>14624</v>
+        <v>14503</v>
       </c>
       <c r="D329">
         <v>310430</v>
@@ -5039,13 +5039,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330">
-        <v>200322.12916800901</v>
+        <v>190131.591494711</v>
       </c>
       <c r="B330">
-        <v>6301380.7645263402</v>
+        <v>5986200.7645382397</v>
       </c>
       <c r="C330">
-        <v>11879</v>
+        <v>11785</v>
       </c>
       <c r="D330">
         <v>330022</v>
@@ -5053,13 +5053,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331">
-        <v>100698.81804180999</v>
+        <v>110969.903083154</v>
       </c>
       <c r="B331">
-        <v>2448296.7162621398</v>
+        <v>3660657.9958394398</v>
       </c>
       <c r="C331">
-        <v>8299</v>
+        <v>8245</v>
       </c>
       <c r="D331">
         <v>350340</v>
@@ -5067,13 +5067,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332">
-        <v>135325.95615914799</v>
+        <v>130650.80665970501</v>
       </c>
       <c r="B332">
-        <v>1046720.1815339701</v>
+        <v>1078938.47841005</v>
       </c>
       <c r="C332">
-        <v>23288</v>
+        <v>23472</v>
       </c>
       <c r="D332">
         <v>250110</v>
@@ -5081,13 +5081,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333">
-        <v>604258.55073362705</v>
+        <v>698885.32748586906</v>
       </c>
       <c r="B333">
-        <v>16127450.5366139</v>
+        <v>13530716.200684801</v>
       </c>
       <c r="C333">
-        <v>27115</v>
+        <v>26868</v>
       </c>
       <c r="D333">
         <v>240110</v>
@@ -5095,13 +5095,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334">
-        <v>120570.50419789</v>
+        <v>129582.77478941101</v>
       </c>
       <c r="B334">
-        <v>740354.27448362298</v>
+        <v>521200.323465369</v>
       </c>
       <c r="C334">
-        <v>17996</v>
+        <v>17825</v>
       </c>
       <c r="D334">
         <v>280050</v>
@@ -5109,13 +5109,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335">
-        <v>10707.7447509139</v>
+        <v>10424.0428930199</v>
       </c>
       <c r="B335">
-        <v>114726.754438302</v>
+        <v>281782.16799442703</v>
       </c>
       <c r="C335">
-        <v>1894</v>
+        <v>1908</v>
       </c>
       <c r="D335">
         <v>250115</v>
@@ -5123,13 +5123,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336">
-        <v>33983.160907320103</v>
+        <v>31897.210432568201</v>
       </c>
       <c r="B336">
-        <v>213844.07358024601</v>
+        <v>73358.169528880404</v>
       </c>
       <c r="C336">
-        <v>6860</v>
+        <v>6819</v>
       </c>
       <c r="D336">
         <v>250120</v>
@@ -5137,13 +5137,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
-        <v>26953.748391394402</v>
+        <v>27764.1944676604</v>
       </c>
       <c r="B337">
-        <v>382633.24428097199</v>
+        <v>404823.72047489701</v>
       </c>
       <c r="C337">
-        <v>3849</v>
+        <v>3839</v>
       </c>
       <c r="D337">
         <v>350350</v>
@@ -5151,13 +5151,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>82439.885472772105</v>
+        <v>89636.144600792497</v>
       </c>
       <c r="B338">
-        <v>1591956.8728825499</v>
+        <v>1563555.19657841</v>
       </c>
       <c r="C338">
-        <v>11020</v>
+        <v>10989</v>
       </c>
       <c r="D338">
         <v>350360</v>
@@ -5165,13 +5165,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>101728.364523122</v>
+        <v>103725.858964616</v>
       </c>
       <c r="B339">
-        <v>1642925.8215379999</v>
+        <v>1284656.2489372599</v>
       </c>
       <c r="C339">
-        <v>9825</v>
+        <v>9955</v>
       </c>
       <c r="D339">
         <v>510130</v>
@@ -5179,13 +5179,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
-        <v>81680.279824216297</v>
+        <v>86164.846109168706</v>
       </c>
       <c r="B340">
-        <v>1059535.66835405</v>
+        <v>893292.73283686303</v>
       </c>
       <c r="C340">
-        <v>3122</v>
+        <v>3180</v>
       </c>
       <c r="D340">
         <v>520235</v>
@@ -5193,13 +5193,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>18783.896863236001</v>
+        <v>18552.446237763601</v>
       </c>
       <c r="B341">
-        <v>115706.641821927</v>
+        <v>131549.63400187599</v>
       </c>
       <c r="C341">
-        <v>2907</v>
+        <v>2924</v>
       </c>
       <c r="D341">
         <v>310440</v>
@@ -5207,13 +5207,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>24879.150126245</v>
+        <v>23941.4794692131</v>
       </c>
       <c r="B342">
-        <v>130461.79778653799</v>
+        <v>138648.19091928899</v>
       </c>
       <c r="C342">
-        <v>5078</v>
+        <v>5036</v>
       </c>
       <c r="D342">
         <v>310445</v>
@@ -5221,13 +5221,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
-        <v>134231.33963499599</v>
+        <v>138266.41414646999</v>
       </c>
       <c r="B343">
-        <v>2621684.5343039501</v>
+        <v>2764484.6774511798</v>
       </c>
       <c r="C343">
-        <v>18210</v>
+        <v>18198</v>
       </c>
       <c r="D343">
         <v>310450</v>
@@ -5235,13 +5235,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
-        <v>338296.11053243</v>
+        <v>399061.58339045802</v>
       </c>
       <c r="B344">
-        <v>3831852.2113605598</v>
+        <v>3476581.8157208902</v>
       </c>
       <c r="C344">
-        <v>20293</v>
+        <v>19919</v>
       </c>
       <c r="D344">
         <v>510140</v>
@@ -5249,13 +5249,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>1417476.04634291</v>
+        <v>1431897.76432135</v>
       </c>
       <c r="B345">
-        <v>26604087.3551898</v>
+        <v>27579877.9590904</v>
       </c>
       <c r="C345">
-        <v>102860</v>
+        <v>101269</v>
       </c>
       <c r="D345">
         <v>110002</v>
@@ -5263,13 +5263,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>421815.81171152898</v>
+        <v>375876.807752022</v>
       </c>
       <c r="B346">
-        <v>1982450.72291812</v>
+        <v>3096088.9484214201</v>
       </c>
       <c r="C346">
-        <v>9187</v>
+        <v>9095</v>
       </c>
       <c r="D346">
         <v>350370</v>
@@ -5277,13 +5277,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>53972.9755005232</v>
+        <v>54348.710802911002</v>
       </c>
       <c r="B347">
-        <v>271326.90861479897</v>
+        <v>169017.839136511</v>
       </c>
       <c r="C347">
-        <v>2389</v>
+        <v>2421</v>
       </c>
       <c r="D347">
         <v>410185</v>
@@ -5291,13 +5291,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>123216.615860427</v>
+        <v>108965.908526773</v>
       </c>
       <c r="B348">
-        <v>1037196.84099425</v>
+        <v>702967.424266794</v>
       </c>
       <c r="C348">
-        <v>8251</v>
+        <v>8159</v>
       </c>
       <c r="D348">
         <v>420150</v>
@@ -5305,13 +5305,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
-        <v>2938702.03838991</v>
+        <v>2732314.80956223</v>
       </c>
       <c r="B349">
-        <v>42153947.087640598</v>
+        <v>43880402.767892897</v>
       </c>
       <c r="C349">
-        <v>30439</v>
+        <v>29790</v>
       </c>
       <c r="D349">
         <v>330023</v>
@@ -5319,13 +5319,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
-        <v>31104.351678052601</v>
+        <v>28098.543741121401</v>
       </c>
       <c r="B350">
-        <v>396467.88482623699</v>
+        <v>439761.96081407199</v>
       </c>
       <c r="C350">
-        <v>7768</v>
+        <v>7766</v>
       </c>
       <c r="D350">
         <v>230150</v>
@@ -5333,13 +5333,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>26820.228254514201</v>
+        <v>25088.658814373499</v>
       </c>
       <c r="B351">
-        <v>135682.89590077</v>
+        <v>92005.042519179595</v>
       </c>
       <c r="C351">
-        <v>5773</v>
+        <v>5784</v>
       </c>
       <c r="D351">
         <v>220090</v>
@@ -5347,13 +5347,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>86185.059658715501</v>
+        <v>85109.799433623004</v>
       </c>
       <c r="B352">
-        <v>525082.45874943805</v>
+        <v>337602.35631724499</v>
       </c>
       <c r="C352">
-        <v>19231</v>
+        <v>19259</v>
       </c>
       <c r="D352">
         <v>250130</v>
@@ -5361,13 +5361,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>10446.701080428</v>
+        <v>9729.5076113438008</v>
       </c>
       <c r="B353">
-        <v>30375.9405240497</v>
+        <v>62478.735091815302</v>
       </c>
       <c r="C353">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D353">
         <v>220095</v>
@@ -5375,13 +5375,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>19297.762019425201</v>
+        <v>18095.044701874202</v>
       </c>
       <c r="B354">
-        <v>188821.06516500001</v>
+        <v>73265.475209096301</v>
       </c>
       <c r="C354">
-        <v>4678</v>
+        <v>4688</v>
       </c>
       <c r="D354">
         <v>220100</v>
@@ -5389,13 +5389,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355">
-        <v>833602.29817603505</v>
+        <v>896174.14479667204</v>
       </c>
       <c r="B355">
-        <v>17173261.897411101</v>
+        <v>19151338.834461998</v>
       </c>
       <c r="C355">
-        <v>28866</v>
+        <v>28627</v>
       </c>
       <c r="D355">
         <v>330025</v>
@@ -5403,13 +5403,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356">
-        <v>101062.64787424399</v>
+        <v>125284.17173563001</v>
       </c>
       <c r="B356">
-        <v>2667301.9665021501</v>
+        <v>5177221.9269493902</v>
       </c>
       <c r="C356">
-        <v>10805</v>
+        <v>10833</v>
       </c>
       <c r="D356">
         <v>170240</v>
@@ -5417,13 +5417,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357">
-        <v>331976.28008758998</v>
+        <v>349033.20169716602</v>
       </c>
       <c r="B357">
-        <v>4550720.7124099601</v>
+        <v>6051935.5939197</v>
       </c>
       <c r="C357">
-        <v>18964</v>
+        <v>18979</v>
       </c>
       <c r="D357">
         <v>430130</v>
@@ -5431,13 +5431,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
-        <v>60015.051602718398</v>
+        <v>65099.277006841803</v>
       </c>
       <c r="B358">
-        <v>427785.839309273</v>
+        <v>415070.32426573097</v>
       </c>
       <c r="C358">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="D358">
         <v>420160</v>
@@ -5445,13 +5445,13 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359">
-        <v>656820.05019621504</v>
+        <v>664676.97594151006</v>
       </c>
       <c r="B359">
-        <v>6719392.0066559697</v>
+        <v>7008273.3840136798</v>
       </c>
       <c r="C359">
-        <v>19923</v>
+        <v>19792</v>
       </c>
       <c r="D359">
         <v>430100</v>
@@ -5459,13 +5459,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
-        <v>35857.580767032501</v>
+        <v>32019.165612313202</v>
       </c>
       <c r="B360">
-        <v>149082.826652035</v>
+        <v>202366.13679710001</v>
       </c>
       <c r="C360">
-        <v>2871</v>
+        <v>2857</v>
       </c>
       <c r="D360">
         <v>430107</v>
@@ -5473,13 +5473,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>121354.42157656301</v>
+        <v>121339.394156304</v>
       </c>
       <c r="B361">
-        <v>16504497.3168466</v>
+        <v>13367377.548473001</v>
       </c>
       <c r="C361">
-        <v>8641</v>
+        <v>8488</v>
       </c>
       <c r="D361">
         <v>430105</v>
@@ -5487,13 +5487,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
-        <v>215682.421447892</v>
+        <v>234014.66493474299</v>
       </c>
       <c r="B362">
-        <v>1530314.0413166001</v>
+        <v>1413931.18736128</v>
       </c>
       <c r="C362">
-        <v>13277</v>
+        <v>13235</v>
       </c>
       <c r="D362">
         <v>430120</v>
@@ -5501,13 +5501,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
-        <v>144974.169199336</v>
+        <v>138412.643573376</v>
       </c>
       <c r="B363">
-        <v>3626625.3554899702</v>
+        <v>4062189.2639731802</v>
       </c>
       <c r="C363">
-        <v>14166</v>
+        <v>14132</v>
       </c>
       <c r="D363">
         <v>430110</v>
@@ -5515,13 +5515,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>713134.15523623105</v>
+        <v>636178.68757045595</v>
       </c>
       <c r="B364">
-        <v>19622440.572447099</v>
+        <v>20222726.415350601</v>
       </c>
       <c r="C364">
-        <v>49346</v>
+        <v>48420</v>
       </c>
       <c r="D364">
         <v>350380</v>
@@ -5529,13 +5529,13 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
-        <v>105763.129132353</v>
+        <v>96462.265453200394</v>
       </c>
       <c r="B365">
-        <v>4553998.5790147698</v>
+        <v>4229115.6467378996</v>
       </c>
       <c r="C365">
-        <v>8542</v>
+        <v>8335</v>
       </c>
       <c r="D365">
         <v>520250</v>
@@ -5543,13 +5543,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
-        <v>2787308.9940983402</v>
+        <v>2299015.5994652798</v>
       </c>
       <c r="B366">
-        <v>78864165.432196394</v>
+        <v>74045628.891183197</v>
       </c>
       <c r="C366">
-        <v>82651</v>
+        <v>81326</v>
       </c>
       <c r="D366">
         <v>350390</v>
@@ -5557,13 +5557,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
-        <v>46253.253549402201</v>
+        <v>54124.465193071497</v>
       </c>
       <c r="B367">
-        <v>330713.59653005301</v>
+        <v>263730.94236990798</v>
       </c>
       <c r="C367">
-        <v>2276</v>
+        <v>2281</v>
       </c>
       <c r="D367">
         <v>420165</v>
@@ -5571,13 +5571,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
-        <v>154152.302836068</v>
+        <v>144587.123565457</v>
       </c>
       <c r="B368">
-        <v>1438773.0793580301</v>
+        <v>2068060.8820265001</v>
       </c>
       <c r="C368">
-        <v>10585</v>
+        <v>10573</v>
       </c>
       <c r="D368">
         <v>430140</v>
@@ -5585,13 +5585,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
-        <v>182216.92106197801</v>
+        <v>166837.207828994</v>
       </c>
       <c r="B369">
-        <v>926003.215012828</v>
+        <v>1111768.1580684199</v>
       </c>
       <c r="C369">
-        <v>13905</v>
+        <v>13764</v>
       </c>
       <c r="D369">
         <v>240120</v>
@@ -5599,13 +5599,13 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
-        <v>117528.016247455</v>
+        <v>169947.03149880801</v>
       </c>
       <c r="B370">
-        <v>1704315.0273506099</v>
+        <v>1610720.5949476101</v>
       </c>
       <c r="C370">
-        <v>7732</v>
+        <v>7683</v>
       </c>
       <c r="D370">
         <v>420170</v>
@@ -5613,13 +5613,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371">
-        <v>17090.986933247699</v>
+        <v>16253.686487686</v>
       </c>
       <c r="B371">
-        <v>164756.91712569899</v>
+        <v>245780.44265375001</v>
       </c>
       <c r="C371">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="D371">
         <v>350395</v>
@@ -5627,13 +5627,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372">
-        <v>130906.86084387101</v>
+        <v>112875.319310819</v>
       </c>
       <c r="B372">
-        <v>955047.86439666001</v>
+        <v>737814.45761740301</v>
       </c>
       <c r="C372">
-        <v>23058</v>
+        <v>22988</v>
       </c>
       <c r="D372">
         <v>230160</v>
@@ -5641,13 +5641,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373">
-        <v>257217.43924938201</v>
+        <v>305046.103497634</v>
       </c>
       <c r="B373">
-        <v>5522532.9143631002</v>
+        <v>6106814.9684816096</v>
       </c>
       <c r="C373">
-        <v>16322</v>
+        <v>16436</v>
       </c>
       <c r="D373">
         <v>410190</v>
@@ -5655,13 +5655,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374">
-        <v>1996875.0980161801</v>
+        <v>1960139.1041256499</v>
       </c>
       <c r="B374">
-        <v>58414534.407830603</v>
+        <v>52350026.826585397</v>
       </c>
       <c r="C374">
-        <v>100911</v>
+        <v>100204</v>
       </c>
       <c r="D374">
         <v>350400</v>
@@ -5669,13 +5669,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375">
-        <v>54095.830255419904</v>
+        <v>51394.685603162397</v>
       </c>
       <c r="B375">
-        <v>617676.78213603003</v>
+        <v>425911.54868401901</v>
       </c>
       <c r="C375">
-        <v>6610</v>
+        <v>6480</v>
       </c>
       <c r="D375">
         <v>120005</v>
@@ -5683,13 +5683,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
-        <v>679173.61972182896</v>
+        <v>725364.76096156996</v>
       </c>
       <c r="B376">
-        <v>8822309.2062785793</v>
+        <v>8977700.1355057992</v>
       </c>
       <c r="C376">
-        <v>34008</v>
+        <v>33988</v>
       </c>
       <c r="D376">
         <v>410200</v>
